--- a/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.645508436656201</v>
+        <v>3.64550843665603</v>
       </c>
       <c r="C2">
-        <v>0.6118553608103525</v>
+        <v>0.6118553608102104</v>
       </c>
       <c r="D2">
-        <v>0.0102488890598611</v>
+        <v>0.01024888905997301</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,19 +427,19 @@
         <v>2.147484462243838</v>
       </c>
       <c r="G2">
-        <v>1.560266263004365</v>
+        <v>1.560266263004351</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2795165082048356</v>
+        <v>0.2795165082048285</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6162635214455108</v>
+        <v>0.6162635214454752</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.141397159384155</v>
+        <v>3.141397159384212</v>
       </c>
       <c r="C3">
-        <v>0.5320921351535048</v>
+        <v>0.5320921351534764</v>
       </c>
       <c r="D3">
-        <v>0.0100451175190468</v>
+        <v>0.01004511751903436</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.900092178774969</v>
+        <v>1.900092178774955</v>
       </c>
       <c r="G3">
         <v>1.385737138544499</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2405560332528083</v>
+        <v>0.2405560332528012</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5287888068381861</v>
+        <v>0.528788806838179</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.836520000668145</v>
+        <v>2.836520000668258</v>
       </c>
       <c r="C4">
-        <v>0.4836239715728539</v>
+        <v>0.4836239715727686</v>
       </c>
       <c r="D4">
-        <v>0.009914271200576863</v>
+        <v>0.009914271200550218</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.754096193188403</v>
+        <v>1.754096193188388</v>
       </c>
       <c r="G4">
         <v>1.283055218373534</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2173746695104413</v>
+        <v>0.2173746695104199</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4762472851133026</v>
+        <v>0.4762472851132955</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.713258606899785</v>
+        <v>2.713258606899956</v>
       </c>
       <c r="C5">
-        <v>0.4639731505528175</v>
+        <v>0.4639731505531017</v>
       </c>
       <c r="D5">
-        <v>0.009859580117650424</v>
+        <v>0.009859580117646871</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.695911946160194</v>
+        <v>1.69591194616018</v>
       </c>
       <c r="G5">
-        <v>1.242207335054943</v>
+        <v>1.242207335054957</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2080881547082782</v>
+        <v>0.2080881547082569</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4550844714251383</v>
+        <v>0.4550844714251312</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.692845033713184</v>
+        <v>2.692845033712956</v>
       </c>
       <c r="C6">
-        <v>0.4607154684674413</v>
+        <v>0.4607154684674128</v>
       </c>
       <c r="D6">
-        <v>0.009850418119512483</v>
+        <v>0.009850418119624393</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,19 +579,19 @@
         <v>1.686324855815883</v>
       </c>
       <c r="G6">
-        <v>1.23548113897894</v>
+        <v>1.235481138978955</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2065550912968561</v>
+        <v>0.2065550912968632</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.451584156130032</v>
+        <v>0.4515841561300107</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.83485393050006</v>
+        <v>2.834853930500003</v>
       </c>
       <c r="C7">
-        <v>0.4833585811898331</v>
+        <v>0.4833585811901173</v>
       </c>
       <c r="D7">
-        <v>0.009913539067831323</v>
+        <v>0.009913539067833099</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2172488127474779</v>
+        <v>0.2172488127474352</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4759609274548637</v>
+        <v>0.4759609274548495</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>3.470604918740491</v>
       </c>
       <c r="C8">
-        <v>0.5842305843916051</v>
+        <v>0.5842305843920883</v>
       </c>
       <c r="D8">
-        <v>0.01017985860756099</v>
+        <v>0.01017985860763559</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>2.060847826442739</v>
       </c>
       <c r="G8">
-        <v>1.499076102710148</v>
+        <v>1.499076102710163</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5858308194999182</v>
+        <v>0.5858308194999324</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.763979651901593</v>
+        <v>4.763979651901479</v>
       </c>
       <c r="C9">
-        <v>0.7874585034082315</v>
+        <v>0.7874585034084589</v>
       </c>
       <c r="D9">
-        <v>0.01065381179286007</v>
+        <v>0.01065381179296665</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3685643337384121</v>
+        <v>0.3685643337383624</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8128991875629907</v>
+        <v>0.8128991875630192</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.758452495071424</v>
+        <v>5.758452495071538</v>
       </c>
       <c r="C10">
-        <v>0.9423393247211322</v>
+        <v>0.9423393247211891</v>
       </c>
       <c r="D10">
-        <v>0.01096919165113874</v>
+        <v>0.0109691916512773</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.251966370291996</v>
+        <v>3.25196637029191</v>
       </c>
       <c r="G10">
-        <v>2.345461408642763</v>
+        <v>2.345461408642748</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4505744051971803</v>
+        <v>0.4505744051972087</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9906128108992647</v>
+        <v>0.9906128108992505</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.224718870112326</v>
+        <v>6.22471887011227</v>
       </c>
       <c r="C11">
-        <v>1.014621953329737</v>
+        <v>1.014621953330021</v>
       </c>
       <c r="D11">
-        <v>0.01110495192398275</v>
+        <v>0.01110495192431671</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.508444352908612</v>
+        <v>3.508444352908583</v>
       </c>
       <c r="G11">
-        <v>2.528887744545045</v>
+        <v>2.528887744545102</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4899128391230789</v>
+        <v>0.4899128391230718</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.0748607904642</v>
+        <v>1.074860790464214</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.403702998084498</v>
+        <v>6.403702998084555</v>
       </c>
       <c r="C12">
         <v>1.042317930563257</v>
       </c>
       <c r="D12">
-        <v>0.01115521429663957</v>
+        <v>0.01115521429664668</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.608013276424686</v>
+        <v>3.608013276424629</v>
       </c>
       <c r="G12">
-        <v>2.600189531222696</v>
+        <v>2.600189531222668</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5051624040105764</v>
+        <v>0.5051624040106049</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.107358246261356</v>
+        <v>1.10735824626137</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.365040440074154</v>
+        <v>6.365040440074267</v>
       </c>
       <c r="C13">
-        <v>1.03633759695137</v>
+        <v>1.036337596951114</v>
       </c>
       <c r="D13">
-        <v>0.01114444093396116</v>
+        <v>0.01114444093392208</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>3.5864536833611</v>
       </c>
       <c r="G13">
-        <v>2.584746345254771</v>
+        <v>2.584746345254828</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5018613510144263</v>
+        <v>0.5018613510144547</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.100331018607704</v>
+        <v>1.10033101860769</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,28 +874,28 @@
         <v>1.016893632048351</v>
       </c>
       <c r="D14">
-        <v>0.01110911021955729</v>
+        <v>0.01110911021950756</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.516584479655734</v>
+        <v>3.516584479655791</v>
       </c>
       <c r="G14">
-        <v>2.534715032334702</v>
+        <v>2.534715032334745</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4911599682172749</v>
+        <v>0.491159968217282</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.077521790994837</v>
+        <v>1.077521790994851</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.16275889776847</v>
+        <v>6.162758897768754</v>
       </c>
       <c r="C15">
-        <v>1.005027856946725</v>
+        <v>1.005027856946668</v>
       </c>
       <c r="D15">
-        <v>0.01108731875247315</v>
+        <v>0.01108731875282132</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.474118700778945</v>
+        <v>3.474118700778916</v>
       </c>
       <c r="G15">
         <v>2.504318736908786</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.484653020691141</v>
+        <v>0.4846530206911837</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.72829475074667</v>
+        <v>5.728294750747011</v>
       </c>
       <c r="C16">
         <v>0.9376572585186693</v>
       </c>
       <c r="D16">
-        <v>0.01096016078982842</v>
+        <v>0.01096016079017659</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.235524834219575</v>
+        <v>3.235524834219603</v>
       </c>
       <c r="G16">
-        <v>2.333715033261214</v>
+        <v>2.3337150332612</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9851840814331752</v>
+        <v>0.9851840814331325</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.46559907748582</v>
+        <v>5.465599077485649</v>
       </c>
       <c r="C17">
-        <v>0.8968359538451125</v>
+        <v>0.8968359538448851</v>
       </c>
       <c r="D17">
-        <v>0.01088014911398716</v>
+        <v>0.0108801491138486</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.093080869638356</v>
+        <v>3.093080869638328</v>
       </c>
       <c r="G17">
-        <v>2.23201259569332</v>
+        <v>2.232012595693334</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4261545559117579</v>
+        <v>0.4261545559118076</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9380004119356471</v>
+        <v>0.9380004119356045</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.31578038731385</v>
+        <v>5.315780387313907</v>
       </c>
       <c r="C18">
-        <v>0.873524308994206</v>
+        <v>0.8735243089939786</v>
       </c>
       <c r="D18">
-        <v>0.0108334048537948</v>
+        <v>0.01083340485380546</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.01247355407898</v>
+        <v>3.012473554079008</v>
       </c>
       <c r="G18">
-        <v>2.174512859838202</v>
+        <v>2.174512859838188</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4137482458843422</v>
+        <v>0.4137482458843493</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9111748661974985</v>
+        <v>0.9111748661975128</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.265261866446849</v>
+        <v>5.265261866446679</v>
       </c>
       <c r="C19">
-        <v>0.8656584803635496</v>
+        <v>0.8656584803630665</v>
       </c>
       <c r="D19">
-        <v>0.01081745508293608</v>
+        <v>0.01081745508291831</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.985397759143467</v>
+        <v>2.985397759143524</v>
       </c>
       <c r="G19">
-        <v>2.155207602304657</v>
+        <v>2.155207602304699</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4095781212083551</v>
+        <v>0.4095781212083409</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9021430938465045</v>
+        <v>0.9021430938465613</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.493428476626093</v>
+        <v>5.493428476626207</v>
       </c>
       <c r="C20">
-        <v>0.9011636838846755</v>
+        <v>0.9011636838846186</v>
       </c>
       <c r="D20">
-        <v>0.01088874169793641</v>
+        <v>0.01088874169781207</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.108104793040724</v>
+        <v>3.108104793040695</v>
       </c>
       <c r="G20">
         <v>2.242733886246995</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4284655358902043</v>
+        <v>0.4284655358902114</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9429900717246511</v>
+        <v>0.9429900717246369</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.276229186754335</v>
+        <v>6.276229186754563</v>
       </c>
       <c r="C21">
-        <v>1.022595456385972</v>
+        <v>1.022595456385915</v>
       </c>
       <c r="D21">
-        <v>0.01111951910326425</v>
+        <v>0.01111951910324649</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.537036969482784</v>
+        <v>3.537036969482813</v>
       </c>
       <c r="G21">
-        <v>2.549357894485638</v>
+        <v>2.549357894485667</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4942931046229972</v>
+        <v>0.4942931046230115</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.084204347056868</v>
+        <v>1.084204347056854</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.80218753312397</v>
+        <v>6.802187533124197</v>
       </c>
       <c r="C22">
-        <v>1.103884049402978</v>
+        <v>1.103884049402751</v>
       </c>
       <c r="D22">
-        <v>0.01126364800770574</v>
+        <v>0.01126364800769153</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.831857008226564</v>
+        <v>3.831857008226535</v>
       </c>
       <c r="G22">
-        <v>2.760664379055839</v>
+        <v>2.760664379055811</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>6.520000627857257</v>
       </c>
       <c r="C23">
-        <v>1.060299351187268</v>
+        <v>1.060299351187211</v>
       </c>
       <c r="D23">
-        <v>0.01118734692737888</v>
+        <v>0.01118734692739309</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.673035107674849</v>
+        <v>3.673035107674878</v>
       </c>
       <c r="G23">
-        <v>2.646778855124765</v>
+        <v>2.646778855124779</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5151151914445293</v>
+        <v>0.5151151914445222</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.128520941497726</v>
+        <v>1.128520941497683</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.480843071930394</v>
+        <v>5.480843071930337</v>
       </c>
       <c r="C24">
-        <v>0.8992066323957033</v>
+        <v>0.8992066323952201</v>
       </c>
       <c r="D24">
         <v>0.0108848593068025</v>
@@ -1263,7 +1263,7 @@
         <v>3.101308501065091</v>
       </c>
       <c r="G24">
-        <v>2.23788378952716</v>
+        <v>2.237883789527174</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.40759565067458</v>
+        <v>4.40759565067475</v>
       </c>
       <c r="C25">
-        <v>0.7316856437635124</v>
+        <v>0.7316856437633135</v>
       </c>
       <c r="D25">
-        <v>0.01053113924333715</v>
+        <v>0.0105311392433407</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3398148866669359</v>
+        <v>0.339814886666943</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7498687425053063</v>
+        <v>0.7498687425052921</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.64550843665603</v>
+        <v>3.645508436656201</v>
       </c>
       <c r="C2">
-        <v>0.6118553608102104</v>
+        <v>0.6118553608103525</v>
       </c>
       <c r="D2">
-        <v>0.01024888905997301</v>
+        <v>0.0102488890598611</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,19 +427,19 @@
         <v>2.147484462243838</v>
       </c>
       <c r="G2">
-        <v>1.560266263004351</v>
+        <v>1.560266263004365</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2795165082048285</v>
+        <v>0.2795165082048356</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6162635214454752</v>
+        <v>0.6162635214455108</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.141397159384212</v>
+        <v>3.141397159384155</v>
       </c>
       <c r="C3">
-        <v>0.5320921351534764</v>
+        <v>0.5320921351535048</v>
       </c>
       <c r="D3">
-        <v>0.01004511751903436</v>
+        <v>0.0100451175190468</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.900092178774955</v>
+        <v>1.900092178774969</v>
       </c>
       <c r="G3">
         <v>1.385737138544499</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2405560332528012</v>
+        <v>0.2405560332528083</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.528788806838179</v>
+        <v>0.5287888068381861</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.836520000668258</v>
+        <v>2.836520000668145</v>
       </c>
       <c r="C4">
-        <v>0.4836239715727686</v>
+        <v>0.4836239715728539</v>
       </c>
       <c r="D4">
-        <v>0.009914271200550218</v>
+        <v>0.009914271200576863</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.754096193188388</v>
+        <v>1.754096193188403</v>
       </c>
       <c r="G4">
         <v>1.283055218373534</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2173746695104199</v>
+        <v>0.2173746695104413</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4762472851132955</v>
+        <v>0.4762472851133026</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.713258606899956</v>
+        <v>2.713258606899785</v>
       </c>
       <c r="C5">
-        <v>0.4639731505531017</v>
+        <v>0.4639731505528175</v>
       </c>
       <c r="D5">
-        <v>0.009859580117646871</v>
+        <v>0.009859580117650424</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.69591194616018</v>
+        <v>1.695911946160194</v>
       </c>
       <c r="G5">
-        <v>1.242207335054957</v>
+        <v>1.242207335054943</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2080881547082569</v>
+        <v>0.2080881547082782</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4550844714251312</v>
+        <v>0.4550844714251383</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.692845033712956</v>
+        <v>2.692845033713184</v>
       </c>
       <c r="C6">
-        <v>0.4607154684674128</v>
+        <v>0.4607154684674413</v>
       </c>
       <c r="D6">
-        <v>0.009850418119624393</v>
+        <v>0.009850418119512483</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,19 +579,19 @@
         <v>1.686324855815883</v>
       </c>
       <c r="G6">
-        <v>1.235481138978955</v>
+        <v>1.23548113897894</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2065550912968632</v>
+        <v>0.2065550912968561</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4515841561300107</v>
+        <v>0.451584156130032</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.834853930500003</v>
+        <v>2.83485393050006</v>
       </c>
       <c r="C7">
-        <v>0.4833585811901173</v>
+        <v>0.4833585811898331</v>
       </c>
       <c r="D7">
-        <v>0.009913539067833099</v>
+        <v>0.009913539067831323</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2172488127474352</v>
+        <v>0.2172488127474779</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4759609274548495</v>
+        <v>0.4759609274548637</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>3.470604918740491</v>
       </c>
       <c r="C8">
-        <v>0.5842305843920883</v>
+        <v>0.5842305843916051</v>
       </c>
       <c r="D8">
-        <v>0.01017985860763559</v>
+        <v>0.01017985860756099</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>2.060847826442739</v>
       </c>
       <c r="G8">
-        <v>1.499076102710163</v>
+        <v>1.499076102710148</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5858308194999324</v>
+        <v>0.5858308194999182</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.763979651901479</v>
+        <v>4.763979651901593</v>
       </c>
       <c r="C9">
-        <v>0.7874585034084589</v>
+        <v>0.7874585034082315</v>
       </c>
       <c r="D9">
-        <v>0.01065381179296665</v>
+        <v>0.01065381179286007</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3685643337383624</v>
+        <v>0.3685643337384121</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8128991875630192</v>
+        <v>0.8128991875629907</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.758452495071538</v>
+        <v>5.758452495071424</v>
       </c>
       <c r="C10">
-        <v>0.9423393247211891</v>
+        <v>0.9423393247211322</v>
       </c>
       <c r="D10">
-        <v>0.0109691916512773</v>
+        <v>0.01096919165113874</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.25196637029191</v>
+        <v>3.251966370291996</v>
       </c>
       <c r="G10">
-        <v>2.345461408642748</v>
+        <v>2.345461408642763</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4505744051972087</v>
+        <v>0.4505744051971803</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9906128108992505</v>
+        <v>0.9906128108992647</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.22471887011227</v>
+        <v>6.224718870112326</v>
       </c>
       <c r="C11">
-        <v>1.014621953330021</v>
+        <v>1.014621953329737</v>
       </c>
       <c r="D11">
-        <v>0.01110495192431671</v>
+        <v>0.01110495192398275</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.508444352908583</v>
+        <v>3.508444352908612</v>
       </c>
       <c r="G11">
-        <v>2.528887744545102</v>
+        <v>2.528887744545045</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4899128391230718</v>
+        <v>0.4899128391230789</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.074860790464214</v>
+        <v>1.0748607904642</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.403702998084555</v>
+        <v>6.403702998084498</v>
       </c>
       <c r="C12">
         <v>1.042317930563257</v>
       </c>
       <c r="D12">
-        <v>0.01115521429664668</v>
+        <v>0.01115521429663957</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.608013276424629</v>
+        <v>3.608013276424686</v>
       </c>
       <c r="G12">
-        <v>2.600189531222668</v>
+        <v>2.600189531222696</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5051624040106049</v>
+        <v>0.5051624040105764</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.10735824626137</v>
+        <v>1.107358246261356</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.365040440074267</v>
+        <v>6.365040440074154</v>
       </c>
       <c r="C13">
-        <v>1.036337596951114</v>
+        <v>1.03633759695137</v>
       </c>
       <c r="D13">
-        <v>0.01114444093392208</v>
+        <v>0.01114444093396116</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>3.5864536833611</v>
       </c>
       <c r="G13">
-        <v>2.584746345254828</v>
+        <v>2.584746345254771</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5018613510144547</v>
+        <v>0.5018613510144263</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.10033101860769</v>
+        <v>1.100331018607704</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,28 +874,28 @@
         <v>1.016893632048351</v>
       </c>
       <c r="D14">
-        <v>0.01110911021950756</v>
+        <v>0.01110911021955729</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.516584479655791</v>
+        <v>3.516584479655734</v>
       </c>
       <c r="G14">
-        <v>2.534715032334745</v>
+        <v>2.534715032334702</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.491159968217282</v>
+        <v>0.4911599682172749</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.077521790994851</v>
+        <v>1.077521790994837</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.162758897768754</v>
+        <v>6.16275889776847</v>
       </c>
       <c r="C15">
-        <v>1.005027856946668</v>
+        <v>1.005027856946725</v>
       </c>
       <c r="D15">
-        <v>0.01108731875282132</v>
+        <v>0.01108731875247315</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.474118700778916</v>
+        <v>3.474118700778945</v>
       </c>
       <c r="G15">
         <v>2.504318736908786</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4846530206911837</v>
+        <v>0.484653020691141</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.728294750747011</v>
+        <v>5.72829475074667</v>
       </c>
       <c r="C16">
         <v>0.9376572585186693</v>
       </c>
       <c r="D16">
-        <v>0.01096016079017659</v>
+        <v>0.01096016078982842</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.235524834219603</v>
+        <v>3.235524834219575</v>
       </c>
       <c r="G16">
-        <v>2.3337150332612</v>
+        <v>2.333715033261214</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9851840814331325</v>
+        <v>0.9851840814331752</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.465599077485649</v>
+        <v>5.46559907748582</v>
       </c>
       <c r="C17">
-        <v>0.8968359538448851</v>
+        <v>0.8968359538451125</v>
       </c>
       <c r="D17">
-        <v>0.0108801491138486</v>
+        <v>0.01088014911398716</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.093080869638328</v>
+        <v>3.093080869638356</v>
       </c>
       <c r="G17">
-        <v>2.232012595693334</v>
+        <v>2.23201259569332</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4261545559118076</v>
+        <v>0.4261545559117579</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9380004119356045</v>
+        <v>0.9380004119356471</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.315780387313907</v>
+        <v>5.31578038731385</v>
       </c>
       <c r="C18">
-        <v>0.8735243089939786</v>
+        <v>0.873524308994206</v>
       </c>
       <c r="D18">
-        <v>0.01083340485380546</v>
+        <v>0.0108334048537948</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.012473554079008</v>
+        <v>3.01247355407898</v>
       </c>
       <c r="G18">
-        <v>2.174512859838188</v>
+        <v>2.174512859838202</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4137482458843493</v>
+        <v>0.4137482458843422</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9111748661975128</v>
+        <v>0.9111748661974985</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.265261866446679</v>
+        <v>5.265261866446849</v>
       </c>
       <c r="C19">
-        <v>0.8656584803630665</v>
+        <v>0.8656584803635496</v>
       </c>
       <c r="D19">
-        <v>0.01081745508291831</v>
+        <v>0.01081745508293608</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.985397759143524</v>
+        <v>2.985397759143467</v>
       </c>
       <c r="G19">
-        <v>2.155207602304699</v>
+        <v>2.155207602304657</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4095781212083409</v>
+        <v>0.4095781212083551</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9021430938465613</v>
+        <v>0.9021430938465045</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.493428476626207</v>
+        <v>5.493428476626093</v>
       </c>
       <c r="C20">
-        <v>0.9011636838846186</v>
+        <v>0.9011636838846755</v>
       </c>
       <c r="D20">
-        <v>0.01088874169781207</v>
+        <v>0.01088874169793641</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.108104793040695</v>
+        <v>3.108104793040724</v>
       </c>
       <c r="G20">
         <v>2.242733886246995</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4284655358902114</v>
+        <v>0.4284655358902043</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9429900717246369</v>
+        <v>0.9429900717246511</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.276229186754563</v>
+        <v>6.276229186754335</v>
       </c>
       <c r="C21">
-        <v>1.022595456385915</v>
+        <v>1.022595456385972</v>
       </c>
       <c r="D21">
-        <v>0.01111951910324649</v>
+        <v>0.01111951910326425</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.537036969482813</v>
+        <v>3.537036969482784</v>
       </c>
       <c r="G21">
-        <v>2.549357894485667</v>
+        <v>2.549357894485638</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4942931046230115</v>
+        <v>0.4942931046229972</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.084204347056854</v>
+        <v>1.084204347056868</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.802187533124197</v>
+        <v>6.80218753312397</v>
       </c>
       <c r="C22">
-        <v>1.103884049402751</v>
+        <v>1.103884049402978</v>
       </c>
       <c r="D22">
-        <v>0.01126364800769153</v>
+        <v>0.01126364800770574</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.831857008226535</v>
+        <v>3.831857008226564</v>
       </c>
       <c r="G22">
-        <v>2.760664379055811</v>
+        <v>2.760664379055839</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>6.520000627857257</v>
       </c>
       <c r="C23">
-        <v>1.060299351187211</v>
+        <v>1.060299351187268</v>
       </c>
       <c r="D23">
-        <v>0.01118734692739309</v>
+        <v>0.01118734692737888</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.673035107674878</v>
+        <v>3.673035107674849</v>
       </c>
       <c r="G23">
-        <v>2.646778855124779</v>
+        <v>2.646778855124765</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5151151914445222</v>
+        <v>0.5151151914445293</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.128520941497683</v>
+        <v>1.128520941497726</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.480843071930337</v>
+        <v>5.480843071930394</v>
       </c>
       <c r="C24">
-        <v>0.8992066323952201</v>
+        <v>0.8992066323957033</v>
       </c>
       <c r="D24">
         <v>0.0108848593068025</v>
@@ -1263,7 +1263,7 @@
         <v>3.101308501065091</v>
       </c>
       <c r="G24">
-        <v>2.237883789527174</v>
+        <v>2.23788378952716</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.40759565067475</v>
+        <v>4.40759565067458</v>
       </c>
       <c r="C25">
-        <v>0.7316856437633135</v>
+        <v>0.7316856437635124</v>
       </c>
       <c r="D25">
-        <v>0.0105311392433407</v>
+        <v>0.01053113924333715</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.339814886666943</v>
+        <v>0.3398148866669359</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7498687425052921</v>
+        <v>0.7498687425053063</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.645508436656201</v>
+        <v>3.645305117818225</v>
       </c>
       <c r="C2">
-        <v>0.6118553608103525</v>
+        <v>0.611736827763167</v>
       </c>
       <c r="D2">
-        <v>0.0102488890598611</v>
+        <v>0.01031329595755182</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.147484462243838</v>
+        <v>2.143209954816442</v>
       </c>
       <c r="G2">
-        <v>1.560266263004365</v>
+        <v>0.5039518147779489</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.05610815691179</v>
       </c>
       <c r="I2">
-        <v>0.2795165082048356</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2794148636597882</v>
       </c>
       <c r="K2">
-        <v>0.6162635214455108</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.6163704120720439</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.141397159384155</v>
+        <v>3.141275276278577</v>
       </c>
       <c r="C3">
-        <v>0.5320921351535048</v>
+        <v>0.5320068593535439</v>
       </c>
       <c r="D3">
-        <v>0.0100451175190468</v>
+        <v>0.0100990429674237</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.900092178774969</v>
+        <v>1.896343067412317</v>
       </c>
       <c r="G3">
-        <v>1.385737138544499</v>
+        <v>0.4426992897984547</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9434485348938182</v>
       </c>
       <c r="I3">
-        <v>0.2405560332528083</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2404692418302545</v>
       </c>
       <c r="K3">
-        <v>0.5287888068381861</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5288882534108481</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.836520000668145</v>
+        <v>2.836439394014462</v>
       </c>
       <c r="C4">
-        <v>0.4836239715728539</v>
+        <v>0.4835575428327559</v>
       </c>
       <c r="D4">
-        <v>0.009914271200576863</v>
+        <v>0.009961675409771331</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.754096193188403</v>
+        <v>1.750660590298082</v>
       </c>
       <c r="G4">
-        <v>1.283055218373534</v>
+        <v>0.4065475502390541</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.877286698845694</v>
       </c>
       <c r="I4">
-        <v>0.2173746695104413</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2172965856109528</v>
       </c>
       <c r="K4">
-        <v>0.4762472851133026</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4763411997634037</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.713258606899785</v>
+        <v>2.713192938836244</v>
       </c>
       <c r="C5">
-        <v>0.4639731505528175</v>
+        <v>0.4639140700199107</v>
       </c>
       <c r="D5">
-        <v>0.009859580117650424</v>
+        <v>0.009904305455421536</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.695911946160194</v>
+        <v>1.692602196313729</v>
       </c>
       <c r="G5">
-        <v>1.242207335054943</v>
+        <v>0.3921376211415151</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8509966351333134</v>
       </c>
       <c r="I5">
-        <v>0.2080881547082782</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2080135381264299</v>
       </c>
       <c r="K5">
-        <v>0.4550844714251383</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4551759306580792</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.692845033713184</v>
+        <v>2.692781740885721</v>
       </c>
       <c r="C6">
-        <v>0.4607154684674413</v>
+        <v>0.460657589745324</v>
       </c>
       <c r="D6">
-        <v>0.009850418119512483</v>
+        <v>0.009894697342772929</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.686324855815883</v>
+        <v>1.683035899015408</v>
       </c>
       <c r="G6">
-        <v>1.23548113897894</v>
+        <v>0.3897631079577764</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8466693871512376</v>
       </c>
       <c r="I6">
-        <v>0.2065550912968561</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2064810461550195</v>
       </c>
       <c r="K6">
-        <v>0.451584156130032</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.451675196557737</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.83485393050006</v>
+        <v>2.834773532550116</v>
       </c>
       <c r="C7">
-        <v>0.4833585811898331</v>
+        <v>0.4832922528166534</v>
       </c>
       <c r="D7">
-        <v>0.009913539067831323</v>
+        <v>0.009960907235349481</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.753306412896904</v>
+        <v>1.749872514545444</v>
       </c>
       <c r="G7">
-        <v>1.282500460957891</v>
+        <v>0.4063519638090582</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8769295307990319</v>
       </c>
       <c r="I7">
-        <v>0.2172488127474779</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2171707759104962</v>
       </c>
       <c r="K7">
-        <v>0.4759609274548637</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4760548097558797</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.470604918740491</v>
+        <v>3.470431691436318</v>
       </c>
       <c r="C8">
-        <v>0.5842305843916051</v>
+        <v>0.5841238857204871</v>
       </c>
       <c r="D8">
-        <v>0.01017985860756099</v>
+        <v>0.01024066932188816</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.060847826442739</v>
+        <v>2.056756606315957</v>
       </c>
       <c r="G8">
-        <v>1.499076102710148</v>
+        <v>0.4825013484366423</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.016583642949556</v>
       </c>
       <c r="I8">
-        <v>0.2659126170409536</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2658161943177149</v>
       </c>
       <c r="K8">
-        <v>0.5858308194999182</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5859353696008824</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.763979651901593</v>
+        <v>4.763538451544434</v>
       </c>
       <c r="C9">
-        <v>0.7874585034082315</v>
+        <v>0.7872567957524268</v>
       </c>
       <c r="D9">
-        <v>0.01065381179286007</v>
+        <v>0.0107403011735876</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.719670060295982</v>
+        <v>2.714197566927083</v>
       </c>
       <c r="G9">
-        <v>1.965986874071746</v>
+        <v>0.6456554204848999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.318720864869235</v>
       </c>
       <c r="I9">
-        <v>0.3685643337384121</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3684273134758556</v>
       </c>
       <c r="K9">
-        <v>0.8128991875629907</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.8130147572306328</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.758452495071424</v>
+        <v>5.757733510105368</v>
       </c>
       <c r="C10">
-        <v>0.9423393247211322</v>
+        <v>0.9420524819125546</v>
       </c>
       <c r="D10">
-        <v>0.01096919165113874</v>
+        <v>0.01107412866490165</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.251966370291996</v>
+        <v>3.245388842802072</v>
       </c>
       <c r="G10">
-        <v>2.345461408642763</v>
+        <v>0.7775842594941622</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.564975799675096</v>
       </c>
       <c r="I10">
-        <v>0.4505744051971803</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4504024932824819</v>
       </c>
       <c r="K10">
-        <v>0.9906128108992647</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.9907263508178232</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.224718870112326</v>
+        <v>6.22384758332629</v>
       </c>
       <c r="C11">
-        <v>1.014621953329737</v>
+        <v>1.014291412559942</v>
       </c>
       <c r="D11">
-        <v>0.01110495192398275</v>
+        <v>0.01121818943496322</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.508444352908612</v>
+        <v>3.501334769514642</v>
       </c>
       <c r="G11">
-        <v>2.528887744545045</v>
+        <v>0.841198080392914</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.684168846820839</v>
       </c>
       <c r="I11">
-        <v>0.4899128391230789</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4897232336933186</v>
       </c>
       <c r="K11">
-        <v>1.0748607904642</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.074969927460614</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.403702998084498</v>
+        <v>6.402769401427065</v>
       </c>
       <c r="C12">
-        <v>1.042317930563257</v>
+        <v>1.041969952356993</v>
       </c>
       <c r="D12">
-        <v>0.01115521429663957</v>
+        <v>0.01127158164511499</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.608013276424686</v>
+        <v>3.60069695438645</v>
       </c>
       <c r="G12">
-        <v>2.600189531222696</v>
+        <v>0.8659027137662889</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.730525695371654</v>
       </c>
       <c r="I12">
-        <v>0.5051624040105764</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5049657541277313</v>
       </c>
       <c r="K12">
-        <v>1.107358246261356</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.107465069233612</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.365040440074154</v>
+        <v>6.364120485947979</v>
       </c>
       <c r="C13">
-        <v>1.03633759695137</v>
+        <v>1.035993417012634</v>
       </c>
       <c r="D13">
-        <v>0.01114444093396116</v>
+        <v>0.01126013481583854</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.5864536833611</v>
+        <v>3.579182139184923</v>
       </c>
       <c r="G13">
-        <v>2.584746345254771</v>
+        <v>0.8605530147093532</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.720484236718548</v>
       </c>
       <c r="I13">
-        <v>0.5018613510144263</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5016662351614443</v>
       </c>
       <c r="K13">
-        <v>1.100331018607704</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.100438371489204</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.239392832219096</v>
+        <v>6.238516518049323</v>
       </c>
       <c r="C14">
-        <v>1.016893632048351</v>
+        <v>1.01656167567279</v>
       </c>
       <c r="D14">
-        <v>0.01110911021955729</v>
+        <v>0.01122260549352561</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.516584479655734</v>
+        <v>3.509457999949689</v>
       </c>
       <c r="G14">
-        <v>2.534715032334702</v>
+        <v>0.843217589569349</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.687956977174579</v>
       </c>
       <c r="I14">
-        <v>0.4911599682172749</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4909697906926596</v>
       </c>
       <c r="K14">
-        <v>1.077521790994837</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.077630751562651</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.16275889776847</v>
+        <v>6.16190867996329</v>
       </c>
       <c r="C15">
-        <v>1.005027856946725</v>
+        <v>1.00470326607865</v>
       </c>
       <c r="D15">
-        <v>0.01108731875247315</v>
+        <v>0.01119946556472229</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.474118700778945</v>
+        <v>3.467080357451096</v>
       </c>
       <c r="G15">
-        <v>2.504318736908786</v>
+        <v>0.8326824846089664</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.668198294774271</v>
       </c>
       <c r="I15">
-        <v>0.484653020691141</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4844658203530585</v>
       </c>
       <c r="K15">
-        <v>1.063631346330922</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.063741202386964</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.72829475074667</v>
+        <v>5.727585124320569</v>
       </c>
       <c r="C16">
-        <v>0.9376572585186693</v>
+        <v>0.9373731573504926</v>
       </c>
       <c r="D16">
-        <v>0.01096016078982842</v>
+        <v>0.01106455348903523</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.235524834219575</v>
+        <v>3.228981403214391</v>
       </c>
       <c r="G16">
-        <v>2.333715033261214</v>
+        <v>0.7735073681726021</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.557346061909271</v>
       </c>
       <c r="I16">
-        <v>0.4480493817239761</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4478785829383725</v>
       </c>
       <c r="K16">
-        <v>0.9851840814331752</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.985297827455355</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.46559907748582</v>
+        <v>5.464968474080592</v>
       </c>
       <c r="C17">
-        <v>0.8968359538451125</v>
+        <v>0.8965753058379278</v>
       </c>
       <c r="D17">
-        <v>0.01088014911398716</v>
+        <v>0.01097976136139422</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.093080869638356</v>
+        <v>3.086832858763756</v>
       </c>
       <c r="G17">
-        <v>2.23201259569332</v>
+        <v>0.7381917927891521</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.491303799792462</v>
       </c>
       <c r="I17">
-        <v>0.4261545559117579</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4259933006659153</v>
       </c>
       <c r="K17">
-        <v>0.9380004119356471</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9381155609298872</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.31578038731385</v>
+        <v>5.315192859581032</v>
       </c>
       <c r="C18">
-        <v>0.873524308994206</v>
+        <v>0.8732766953445719</v>
       </c>
       <c r="D18">
-        <v>0.0108334048537948</v>
+        <v>0.01093025892483013</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.01247355407898</v>
+        <v>3.006392770233077</v>
       </c>
       <c r="G18">
-        <v>2.174512859838202</v>
+        <v>0.7182112023950395</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.453979895629715</v>
       </c>
       <c r="I18">
-        <v>0.4137482458843422</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4135923144854843</v>
       </c>
       <c r="K18">
-        <v>0.9111748661974985</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9112905053893741</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.265261866446849</v>
+        <v>5.264688539622512</v>
       </c>
       <c r="C19">
-        <v>0.8656584803635496</v>
+        <v>0.8654152064653431</v>
       </c>
       <c r="D19">
-        <v>0.01081745508293608</v>
+        <v>0.01091337381362933</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.985397759143467</v>
+        <v>2.979373161410081</v>
       </c>
       <c r="G19">
-        <v>2.155207602304657</v>
+        <v>0.711500412532402</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.441451053817005</v>
       </c>
       <c r="I19">
-        <v>0.4095781212083551</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4094239661313992</v>
       </c>
       <c r="K19">
-        <v>0.9021430938465045</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9022588484446601</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.493428476626093</v>
+        <v>5.492789712934723</v>
       </c>
       <c r="C20">
-        <v>0.9011636838846755</v>
+        <v>0.9009005875176115</v>
       </c>
       <c r="D20">
-        <v>0.01088874169793641</v>
+        <v>0.01098886372277974</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.108104793040724</v>
+        <v>3.10182561948443</v>
       </c>
       <c r="G20">
-        <v>2.242733886246995</v>
+        <v>0.7419161778812509</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.498264335850024</v>
       </c>
       <c r="I20">
-        <v>0.4284655358902043</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4283032823567225</v>
       </c>
       <c r="K20">
-        <v>0.9429900717246511</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9431051050883639</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.276229186754335</v>
+        <v>6.275340188605639</v>
       </c>
       <c r="C21">
-        <v>1.022595456385972</v>
+        <v>1.022259935402531</v>
       </c>
       <c r="D21">
-        <v>0.01111951910326425</v>
+        <v>0.01123366052703645</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.537036969482784</v>
+        <v>3.52986803301917</v>
       </c>
       <c r="G21">
-        <v>2.549357894485638</v>
+        <v>0.8482918563234989</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.697476207514612</v>
       </c>
       <c r="I21">
-        <v>0.4942931046229972</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4941014867100293</v>
       </c>
       <c r="K21">
-        <v>1.084204347056868</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.084312854332765</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.80218753312397</v>
+        <v>6.801107378073766</v>
       </c>
       <c r="C22">
-        <v>1.103884049402978</v>
+        <v>1.103495894988811</v>
       </c>
       <c r="D22">
-        <v>0.01126364800770574</v>
+        <v>0.01138687373996561</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.831857008226564</v>
+        <v>3.824075235270527</v>
       </c>
       <c r="G22">
-        <v>2.760664379055839</v>
+        <v>0.9214602255096054</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.834902885967537</v>
       </c>
       <c r="I22">
-        <v>0.5394092921524205</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5391964192358216</v>
       </c>
       <c r="K22">
-        <v>1.180024903630411</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.180125275571783</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.520000627857257</v>
+        <v>6.519025382758628</v>
       </c>
       <c r="C23">
-        <v>1.060299351187268</v>
+        <v>1.059939842057958</v>
       </c>
       <c r="D23">
-        <v>0.01118734692737888</v>
+        <v>0.01130573145242764</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.673035107674849</v>
+        <v>3.665583690016717</v>
       </c>
       <c r="G23">
-        <v>2.646778855124765</v>
+        <v>0.8820383547860331</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.760822475489093</v>
       </c>
       <c r="I23">
-        <v>0.5151151914445293</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5149138853323763</v>
       </c>
       <c r="K23">
-        <v>1.128520941497726</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.128626069391416</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.480843071930394</v>
+        <v>5.480208004776557</v>
       </c>
       <c r="C24">
-        <v>0.8992066323957033</v>
+        <v>0.8989446443183624</v>
       </c>
       <c r="D24">
-        <v>0.0108848593068025</v>
+        <v>0.01098475089186834</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.101308501065091</v>
+        <v>3.095043424222894</v>
       </c>
       <c r="G24">
-        <v>2.23788378952716</v>
+        <v>0.7402313850885349</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.4951154834026</v>
       </c>
       <c r="I24">
-        <v>0.4274201815136607</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4272583798074194</v>
       </c>
       <c r="K24">
-        <v>0.9407333167187772</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9408484033341438</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.40759565067458</v>
+        <v>4.407238754938987</v>
       </c>
       <c r="C25">
-        <v>0.7316856437635124</v>
+        <v>0.7315118575293695</v>
       </c>
       <c r="D25">
-        <v>0.01053113924333715</v>
+        <v>0.0106107551290382</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.534119959741417</v>
+        <v>2.529034152611274</v>
       </c>
       <c r="G25">
-        <v>1.834141604623198</v>
+        <v>0.599693477067845</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.233290344735792</v>
       </c>
       <c r="I25">
-        <v>0.3398148866669359</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3396895393643007</v>
       </c>
       <c r="K25">
-        <v>0.7498687425053063</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.749982754703737</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.645305117818225</v>
+        <v>5.050962108005535</v>
       </c>
       <c r="C2">
-        <v>0.611736827763167</v>
+        <v>0.787699595958486</v>
       </c>
       <c r="D2">
-        <v>0.01031329595755182</v>
+        <v>0.01628130923949556</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.143209954816442</v>
+        <v>3.250243037147555</v>
       </c>
       <c r="G2">
-        <v>0.5039518147779489</v>
+        <v>0.0008244848725308027</v>
       </c>
       <c r="H2">
-        <v>1.05610815691179</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2794148636597882</v>
+        <v>0.0604875156219844</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6163704120720439</v>
+        <v>0.3256117060427925</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.454242088456397</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.141275276278577</v>
+        <v>4.435995809801852</v>
       </c>
       <c r="C3">
-        <v>0.5320068593535439</v>
+        <v>0.6772415761048478</v>
       </c>
       <c r="D3">
-        <v>0.0100990429674237</v>
+        <v>0.01369100736020457</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.896343067412317</v>
+        <v>3.013948386756681</v>
       </c>
       <c r="G3">
-        <v>0.4426992897984547</v>
+        <v>0.0008351473577128068</v>
       </c>
       <c r="H3">
-        <v>0.9434485348938182</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2404692418302545</v>
+        <v>0.0613286375457136</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5288882534108481</v>
+        <v>0.2930568333013071</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.496623147005295</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.836439394014462</v>
+        <v>4.067586261456825</v>
       </c>
       <c r="C4">
-        <v>0.4835575428327559</v>
+        <v>0.6107827979149931</v>
       </c>
       <c r="D4">
-        <v>0.009961675409771331</v>
+        <v>0.01217697760280601</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.750660590298082</v>
+        <v>2.876122432038301</v>
       </c>
       <c r="G4">
-        <v>0.4065475502390541</v>
+        <v>0.0008418530493458575</v>
       </c>
       <c r="H4">
-        <v>0.877286698845694</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2172965856109528</v>
+        <v>0.06190358719995359</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4763411997634037</v>
+        <v>0.2736282251763669</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.524839718735095</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.713192938836244</v>
+        <v>3.919485771372763</v>
       </c>
       <c r="C5">
-        <v>0.4639140700199107</v>
+        <v>0.5839917980674443</v>
       </c>
       <c r="D5">
-        <v>0.009904305455421536</v>
+        <v>0.01157625846505184</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.692602196313729</v>
+        <v>2.821607696731334</v>
       </c>
       <c r="G5">
-        <v>0.3921376211415151</v>
+        <v>0.0008446281803244915</v>
       </c>
       <c r="H5">
-        <v>0.8509966351333134</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2080135381264299</v>
+        <v>0.06215213045115497</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4551759306580792</v>
+        <v>0.2658372862197496</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.536858656912194</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.692781740885721</v>
+        <v>3.895008699787184</v>
       </c>
       <c r="C6">
-        <v>0.460657589745324</v>
+        <v>0.5795593757821393</v>
       </c>
       <c r="D6">
-        <v>0.009894697342772929</v>
+        <v>0.01147741113932099</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.683035899015408</v>
+        <v>2.812650446121651</v>
       </c>
       <c r="G6">
-        <v>0.3897631079577764</v>
+        <v>0.0008450916264398143</v>
       </c>
       <c r="H6">
-        <v>0.8466693871512376</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2064810461550195</v>
+        <v>0.06219424858809752</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.451675196557737</v>
+        <v>0.2645508417445512</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.538884968153972</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.834773532550116</v>
+        <v>4.065581059588112</v>
       </c>
       <c r="C7">
-        <v>0.4832922528166534</v>
+        <v>0.6104203689283452</v>
       </c>
       <c r="D7">
-        <v>0.009960907235349481</v>
+        <v>0.01216881393416713</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.749872514545444</v>
+        <v>2.875380763882703</v>
       </c>
       <c r="G7">
-        <v>0.4063519638090582</v>
+        <v>0.0008418903004406841</v>
       </c>
       <c r="H7">
-        <v>0.8769295307990319</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2171707759104962</v>
+        <v>0.06190688203807504</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4760548097558797</v>
+        <v>0.2735226603139296</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.52499974221854</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.470431691436318</v>
+        <v>4.836838811107214</v>
       </c>
       <c r="C8">
-        <v>0.5841238857204871</v>
+        <v>0.7492983054044942</v>
       </c>
       <c r="D8">
-        <v>0.01024066932188816</v>
+        <v>0.01537042541670175</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.056756606315957</v>
+        <v>3.167150936859201</v>
       </c>
       <c r="G8">
-        <v>0.4825013484366423</v>
+        <v>0.0008281299353538236</v>
       </c>
       <c r="H8">
-        <v>1.016583642949556</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2658161943177149</v>
+        <v>0.06076510092733933</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5859353696008824</v>
+        <v>0.3142613334247386</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.468379755993027</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.763538451544434</v>
+        <v>6.436396790115168</v>
       </c>
       <c r="C9">
-        <v>0.7872567957524268</v>
+        <v>1.03507373794406</v>
       </c>
       <c r="D9">
-        <v>0.0107403011735876</v>
+        <v>0.02240823934324965</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.714197566927083</v>
+        <v>3.805836374625954</v>
       </c>
       <c r="G9">
-        <v>0.6456554204848999</v>
+        <v>0.000802277115890314</v>
       </c>
       <c r="H9">
-        <v>1.318720864869235</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3684273134758556</v>
+        <v>0.0590135908327909</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8130147572306328</v>
+        <v>0.3993336628501254</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.376355141582906</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.757733510105368</v>
+        <v>7.687589058905303</v>
       </c>
       <c r="C10">
-        <v>0.9420524819125546</v>
+        <v>1.257448027500118</v>
       </c>
       <c r="D10">
-        <v>0.01107412866490165</v>
+        <v>0.02829200410482002</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.245388842802072</v>
+        <v>4.329928777456303</v>
       </c>
       <c r="G10">
-        <v>0.7775842594941622</v>
+        <v>0.0007837664677144201</v>
       </c>
       <c r="H10">
-        <v>1.564975799675096</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4504024932824819</v>
+        <v>0.05806103568023602</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.9907263508178232</v>
+        <v>0.4661795722834654</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.322889750285995</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.22384758332629</v>
+        <v>8.27941303153159</v>
       </c>
       <c r="C11">
-        <v>1.014291412559942</v>
+        <v>1.362445002500351</v>
       </c>
       <c r="D11">
-        <v>0.01121818943496322</v>
+        <v>0.03119240747636809</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.501334769514642</v>
+        <v>4.584090166937216</v>
       </c>
       <c r="G11">
-        <v>0.841198080392914</v>
+        <v>0.0007753957302530245</v>
       </c>
       <c r="H11">
-        <v>1.684168846820839</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4897232336933186</v>
+        <v>0.05771011522555369</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.074969927460614</v>
+        <v>0.4978481018277847</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.302328224163688</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.402769401427065</v>
+        <v>8.507388662010726</v>
       </c>
       <c r="C12">
-        <v>1.041969952356993</v>
+        <v>1.402870547134057</v>
       </c>
       <c r="D12">
-        <v>0.01127158164511499</v>
+        <v>0.03232996686896428</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.60069695438645</v>
+        <v>4.682981745082799</v>
       </c>
       <c r="G12">
-        <v>0.8659027137662889</v>
+        <v>0.0007722276950214279</v>
       </c>
       <c r="H12">
-        <v>1.730525695371654</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5049657541277313</v>
+        <v>0.05759005882110912</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.107465069233612</v>
+        <v>0.5100526755520463</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.295152505275965</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.364120485947979</v>
+        <v>8.458107385462085</v>
       </c>
       <c r="C13">
-        <v>1.035993417012634</v>
+        <v>1.394132568010946</v>
       </c>
       <c r="D13">
-        <v>0.01126013481583854</v>
+        <v>0.03208310143412518</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.579182139184923</v>
+        <v>4.66155922673687</v>
       </c>
       <c r="G13">
-        <v>0.8605530147093532</v>
+        <v>0.0007729100040813371</v>
       </c>
       <c r="H13">
-        <v>1.720484236718548</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5016662351614443</v>
+        <v>0.05761532724296359</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.100438371489204</v>
+        <v>0.507414204539856</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.296669534109043</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.238516518049323</v>
+        <v>8.298087429616544</v>
       </c>
       <c r="C14">
-        <v>1.01656167567279</v>
+        <v>1.365756779624405</v>
       </c>
       <c r="D14">
-        <v>0.01122260549352561</v>
+        <v>0.03128516367388556</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.509457999949689</v>
+        <v>4.592170592106385</v>
       </c>
       <c r="G14">
-        <v>0.843217589569349</v>
+        <v>0.000775135092395917</v>
       </c>
       <c r="H14">
-        <v>1.687956977174579</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4909697906926596</v>
+        <v>0.05769997482365952</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.077630751562651</v>
+        <v>0.4988477260185533</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.301725196402003</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.16190867996329</v>
+        <v>8.20059362671509</v>
       </c>
       <c r="C15">
-        <v>1.00470326607865</v>
+        <v>1.348466153206175</v>
       </c>
       <c r="D15">
-        <v>0.01119946556472229</v>
+        <v>0.03080174543972447</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.467080357451096</v>
+        <v>4.550025055865405</v>
       </c>
       <c r="G15">
-        <v>0.8326824846089664</v>
+        <v>0.0007764980805101649</v>
       </c>
       <c r="H15">
-        <v>1.668198294774271</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4844658203530585</v>
+        <v>0.05775352641007814</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.063741202386964</v>
+        <v>0.4936291820172585</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.30490371073391</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.727585124320569</v>
+        <v>7.649417488984113</v>
       </c>
       <c r="C16">
-        <v>0.9373731573504926</v>
+        <v>1.250672740334551</v>
       </c>
       <c r="D16">
-        <v>0.01106455348903523</v>
+        <v>0.02810753421389478</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.228981403214391</v>
+        <v>4.313666863139503</v>
       </c>
       <c r="G16">
-        <v>0.7735073681726021</v>
+        <v>0.0007843140770041842</v>
       </c>
       <c r="H16">
-        <v>1.557346061909271</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4478785829383725</v>
+        <v>0.05808570769220367</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.985297827455355</v>
+        <v>0.4641378694716138</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.324314862760545</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.464968474080592</v>
+        <v>7.317492549921894</v>
       </c>
       <c r="C17">
-        <v>0.8965753058379278</v>
+        <v>1.191737679956134</v>
       </c>
       <c r="D17">
-        <v>0.01097976136139422</v>
+        <v>0.02651668329212242</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.086832858763756</v>
+        <v>4.172955086825908</v>
       </c>
       <c r="G17">
-        <v>0.7381917927891521</v>
+        <v>0.0007891181327256019</v>
       </c>
       <c r="H17">
-        <v>1.491303799792462</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4259933006659153</v>
+        <v>0.05831124669374255</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9381155609298872</v>
+        <v>0.4463893099989349</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.33723216677383</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.315192859581032</v>
+        <v>7.128668443191259</v>
       </c>
       <c r="C18">
-        <v>0.8732766953445719</v>
+        <v>1.158193216813515</v>
       </c>
       <c r="D18">
-        <v>0.01093025892483013</v>
+        <v>0.02562224789126688</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.006392770233077</v>
+        <v>4.093477638698488</v>
       </c>
       <c r="G18">
-        <v>0.7182112023950395</v>
+        <v>0.0007918863587265599</v>
       </c>
       <c r="H18">
-        <v>1.453979895629715</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4135923144854843</v>
+        <v>0.05844866001568505</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9112905053893741</v>
+        <v>0.4362972709150768</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.345010987039586</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.264688539622512</v>
+        <v>7.065077902369239</v>
       </c>
       <c r="C19">
-        <v>0.8654152064653431</v>
+        <v>1.146893176759761</v>
       </c>
       <c r="D19">
-        <v>0.01091337381362933</v>
+        <v>0.02532274749892949</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.979373161410081</v>
+        <v>4.066807408255698</v>
       </c>
       <c r="G19">
-        <v>0.711500412532402</v>
+        <v>0.0007928246521435589</v>
       </c>
       <c r="H19">
-        <v>1.441451053817005</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4094239661313992</v>
+        <v>0.05849647896521404</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9022588484446601</v>
+        <v>0.4328994102848327</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.347702782288607</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.492789712934723</v>
+        <v>7.352606091589792</v>
       </c>
       <c r="C20">
-        <v>0.9009005875176115</v>
+        <v>1.197974076231844</v>
       </c>
       <c r="D20">
-        <v>0.01098886372277974</v>
+        <v>0.0266838551031725</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.10182561948443</v>
+        <v>4.187780811493155</v>
       </c>
       <c r="G20">
-        <v>0.7419161778812509</v>
+        <v>0.0007886062454188561</v>
       </c>
       <c r="H20">
-        <v>1.498264335850024</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4283032823567225</v>
+        <v>0.05828643524819199</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9431051050883639</v>
+        <v>0.4482664105712644</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.335820495216424</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.275340188605639</v>
+        <v>8.344978938992085</v>
       </c>
       <c r="C21">
-        <v>1.022259935402531</v>
+        <v>1.374072374201603</v>
       </c>
       <c r="D21">
-        <v>0.01123366052703645</v>
+        <v>0.03151840964985553</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.52986803301917</v>
+        <v>4.612476544141401</v>
       </c>
       <c r="G21">
-        <v>0.8482918563234989</v>
+        <v>0.0007744815288655166</v>
       </c>
       <c r="H21">
-        <v>1.697476207514612</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4941014867100293</v>
+        <v>0.05767475500609365</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.084312854332765</v>
+        <v>0.5013578703038064</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.300223042305348</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.801107378073766</v>
+        <v>9.01643734050117</v>
       </c>
       <c r="C22">
-        <v>1.103495894988811</v>
+        <v>1.493109179248108</v>
       </c>
       <c r="D22">
-        <v>0.01138687373996561</v>
+        <v>0.0349110709374898</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.824075235270527</v>
+        <v>4.905689135762941</v>
       </c>
       <c r="G22">
-        <v>0.9214602255096054</v>
+        <v>0.0007652574235181662</v>
       </c>
       <c r="H22">
-        <v>1.834902885967537</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5391964192358216</v>
+        <v>0.05735033962340452</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.180125275571783</v>
+        <v>0.5373125264371907</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.280557872790268</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.519025382758628</v>
+        <v>8.655745231430501</v>
       </c>
       <c r="C23">
-        <v>1.059939842057958</v>
+        <v>1.429173095478518</v>
       </c>
       <c r="D23">
-        <v>0.01130573145242764</v>
+        <v>0.03307633550789291</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.665583690016717</v>
+        <v>4.74762085411632</v>
       </c>
       <c r="G23">
-        <v>0.8820383547860331</v>
+        <v>0.00077018186079486</v>
       </c>
       <c r="H23">
-        <v>1.760822475489093</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5149138853323763</v>
+        <v>0.05751622558192082</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.128626069391416</v>
+        <v>0.5179962067567629</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.290697874729076</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.480208004776557</v>
+        <v>7.33672506206392</v>
       </c>
       <c r="C24">
-        <v>0.8989446443183624</v>
+        <v>1.195153556717685</v>
       </c>
       <c r="D24">
-        <v>0.01098475089186834</v>
+        <v>0.02660821442897543</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.095043424222894</v>
+        <v>4.181073707540435</v>
       </c>
       <c r="G24">
-        <v>0.7402313850885349</v>
+        <v>0.000788837649625481</v>
       </c>
       <c r="H24">
-        <v>1.4951154834026</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4272583798074194</v>
+        <v>0.05829762844145669</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9408484033341438</v>
+        <v>0.4474174273202323</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.336457619132418</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.407238754938987</v>
+        <v>5.992171802628093</v>
       </c>
       <c r="C25">
-        <v>0.7315118575293695</v>
+        <v>0.955925040095309</v>
       </c>
       <c r="D25">
-        <v>0.0106107551290382</v>
+        <v>0.0203995346039676</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.529034152611274</v>
+        <v>3.62457510075609</v>
       </c>
       <c r="G25">
-        <v>0.599693477067845</v>
+        <v>0.0008091695516959474</v>
       </c>
       <c r="H25">
-        <v>1.233290344735792</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3396895393643007</v>
+        <v>0.05943169464305598</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.749982754703737</v>
+        <v>0.3756517931803671</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.39897322227867</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.050962108005535</v>
+        <v>0.9723562055457364</v>
       </c>
       <c r="C2">
-        <v>0.787699595958486</v>
+        <v>0.06001942178281183</v>
       </c>
       <c r="D2">
-        <v>0.01628130923949556</v>
+        <v>0.111010688049646</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.250243037147555</v>
+        <v>7.90812040735554</v>
       </c>
       <c r="G2">
-        <v>0.0008244848725308027</v>
+        <v>0.0008982582116011061</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0604875156219844</v>
+        <v>0.1995741665650783</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7951724758043213</v>
       </c>
       <c r="L2">
-        <v>0.3256117060427925</v>
+        <v>0.06240841889471582</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1656840580942074</v>
       </c>
       <c r="N2">
-        <v>1.454242088456397</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.435995809801852</v>
+        <v>0.8808865157282924</v>
       </c>
       <c r="C3">
-        <v>0.6772415761048478</v>
+        <v>0.05184305656369759</v>
       </c>
       <c r="D3">
-        <v>0.01369100736020457</v>
+        <v>0.09776975496414764</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.013948386756681</v>
+        <v>7.264075384704739</v>
       </c>
       <c r="G3">
-        <v>0.0008351473577128068</v>
+        <v>0.0009068861870730611</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0613286375457136</v>
+        <v>0.1898995662331728</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7070299884140354</v>
       </c>
       <c r="L3">
-        <v>0.2930568333013071</v>
+        <v>0.06124543879131039</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1527220538968308</v>
       </c>
       <c r="N3">
-        <v>1.496623147005295</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.067586261456825</v>
+        <v>0.826973765508086</v>
       </c>
       <c r="C4">
-        <v>0.6107827979149931</v>
+        <v>0.04692768805595193</v>
       </c>
       <c r="D4">
-        <v>0.01217697760280601</v>
+        <v>0.08973062580334812</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.876122432038301</v>
+        <v>6.874496683972495</v>
       </c>
       <c r="G4">
-        <v>0.0008418530493458575</v>
+        <v>0.0009123257078525865</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06190358719995359</v>
+        <v>0.1840455331063069</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6548851153423527</v>
       </c>
       <c r="L4">
-        <v>0.2736282251763669</v>
+        <v>0.0607109060099269</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1451758974030675</v>
       </c>
       <c r="N4">
-        <v>1.524839718735095</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.919485771372763</v>
+        <v>0.8055246734126911</v>
       </c>
       <c r="C5">
-        <v>0.5839917980674443</v>
+        <v>0.04494650050610716</v>
       </c>
       <c r="D5">
-        <v>0.01157625846505184</v>
+        <v>0.08647275208269889</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.821607696731334</v>
+        <v>6.717017732459766</v>
       </c>
       <c r="G5">
-        <v>0.0008446281803244915</v>
+        <v>0.0009145795958815886</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06215213045115497</v>
+        <v>0.1816785353119315</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6340880162862561</v>
       </c>
       <c r="L5">
-        <v>0.2658372862197496</v>
+        <v>0.06053620585197095</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1421972340446978</v>
       </c>
       <c r="N5">
-        <v>1.536858656912194</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.895008699787184</v>
+        <v>0.8019932754717161</v>
       </c>
       <c r="C6">
-        <v>0.5795593757821393</v>
+        <v>0.04461872136516121</v>
       </c>
       <c r="D6">
-        <v>0.01147741113932099</v>
+        <v>0.08593274887199698</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.812650446121651</v>
+        <v>6.690940130772447</v>
       </c>
       <c r="G6">
-        <v>0.0008450916264398143</v>
+        <v>0.0009149561448254643</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06219424858809752</v>
+        <v>0.1812865321492652</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6306607690603983</v>
       </c>
       <c r="L6">
-        <v>0.2645508417445512</v>
+        <v>0.0605097457704673</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1417082530701919</v>
       </c>
       <c r="N6">
-        <v>1.538884968153972</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.065581059588112</v>
+        <v>0.8266824437209266</v>
       </c>
       <c r="C7">
-        <v>0.6104203689283452</v>
+        <v>0.046900886239996</v>
       </c>
       <c r="D7">
-        <v>0.01216881393416713</v>
+        <v>0.08968662151865914</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.875380763882703</v>
+        <v>6.872367945747271</v>
       </c>
       <c r="G7">
-        <v>0.0008418903004406841</v>
+        <v>0.0009123559519053537</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06190688203807504</v>
+        <v>0.184013539703507</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6546028626926557</v>
       </c>
       <c r="L7">
-        <v>0.2735226603139296</v>
+        <v>0.06070837787635597</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1451353447609165</v>
       </c>
       <c r="N7">
-        <v>1.52499974221854</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.836838811107214</v>
+        <v>0.9403221965818318</v>
       </c>
       <c r="C8">
-        <v>0.7492983054044942</v>
+        <v>0.05717557744389978</v>
       </c>
       <c r="D8">
-        <v>0.01537042541670175</v>
+        <v>0.1064234078066306</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.167150936859201</v>
+        <v>7.684711756936366</v>
       </c>
       <c r="G8">
-        <v>0.0008281299353538236</v>
+        <v>0.0009012046572499175</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06076510092733933</v>
+        <v>0.1962185210259122</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7643432187065287</v>
       </c>
       <c r="L8">
-        <v>0.3142613334247386</v>
+        <v>0.06196888938669431</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1611245522677613</v>
       </c>
       <c r="N8">
-        <v>1.468379755993027</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.436396790115168</v>
+        <v>1.183268412324082</v>
       </c>
       <c r="C9">
-        <v>1.03507373794406</v>
+        <v>0.07838407830416827</v>
       </c>
       <c r="D9">
-        <v>0.02240823934324965</v>
+        <v>0.1401982466781533</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.805836374625954</v>
+        <v>9.334114145490759</v>
       </c>
       <c r="G9">
-        <v>0.000802277115890314</v>
+        <v>0.0008803861362607306</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0590135908327909</v>
+        <v>0.2209911100648867</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9974256834032076</v>
       </c>
       <c r="L9">
-        <v>0.3993336628501254</v>
+        <v>0.06596618878418781</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1961166168318904</v>
       </c>
       <c r="N9">
-        <v>1.376355141582906</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.687589058905303</v>
+        <v>1.377515174312947</v>
       </c>
       <c r="C10">
-        <v>1.257448027500118</v>
+        <v>0.0949686040345199</v>
       </c>
       <c r="D10">
-        <v>0.02829200410482002</v>
+        <v>0.1659541927513999</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.329928777456303</v>
+        <v>10.59557311025097</v>
       </c>
       <c r="G10">
-        <v>0.0007837664677144201</v>
+        <v>0.0008656118722976983</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05806103568023602</v>
+        <v>0.2399425192310147</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.18302374049145</v>
       </c>
       <c r="L10">
-        <v>0.4661795722834654</v>
+        <v>0.06999016533427493</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2246096549493259</v>
       </c>
       <c r="N10">
-        <v>1.322889750285995</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.27941303153159</v>
+        <v>1.470201654333295</v>
       </c>
       <c r="C11">
-        <v>1.362445002500351</v>
+        <v>0.1028235774186328</v>
       </c>
       <c r="D11">
-        <v>0.03119240747636809</v>
+        <v>0.1779668131917305</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.584090166937216</v>
+        <v>11.18409846029436</v>
       </c>
       <c r="G11">
-        <v>0.0007753957302530245</v>
+        <v>0.0008589739229732918</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05771011522555369</v>
+        <v>0.2487879898832048</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.271460268419418</v>
       </c>
       <c r="L11">
-        <v>0.4978481018277847</v>
+        <v>0.07209722428363818</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2383218936853559</v>
       </c>
       <c r="N11">
-        <v>1.302328224163688</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.507388662010726</v>
+        <v>1.506007109873764</v>
       </c>
       <c r="C12">
-        <v>1.402870547134057</v>
+        <v>0.1058516803356184</v>
       </c>
       <c r="D12">
-        <v>0.03232996686896428</v>
+        <v>0.1825668829544611</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.682981745082799</v>
+        <v>11.40943577331177</v>
       </c>
       <c r="G12">
-        <v>0.0007722276950214279</v>
+        <v>0.0008564694116388041</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05759005882110912</v>
+        <v>0.2521755788171944</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.305610126371619</v>
       </c>
       <c r="L12">
-        <v>0.5100526755520463</v>
+        <v>0.07293875467991739</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.243636222300875</v>
       </c>
       <c r="N12">
-        <v>1.295152505275965</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.458107385462085</v>
+        <v>1.498262836289769</v>
       </c>
       <c r="C13">
-        <v>1.394132568010946</v>
+        <v>0.1051969850617098</v>
       </c>
       <c r="D13">
-        <v>0.03208310143412518</v>
+        <v>0.1815737530904187</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.66155922673687</v>
+        <v>11.36078897081904</v>
       </c>
       <c r="G13">
-        <v>0.0007729100040813371</v>
+        <v>0.0008570084448591151</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05761532724296359</v>
+        <v>0.2514442119196403</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.298224484766223</v>
       </c>
       <c r="L13">
-        <v>0.507414204539856</v>
+        <v>0.0727555085116478</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2424860294536622</v>
       </c>
       <c r="N13">
-        <v>1.296669534109043</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.298087429616544</v>
+        <v>1.473132690483055</v>
       </c>
       <c r="C14">
-        <v>1.365756779624405</v>
+        <v>0.1030715715917836</v>
       </c>
       <c r="D14">
-        <v>0.03128516367388556</v>
+        <v>0.1783441857838994</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.592170592106385</v>
+        <v>11.20258523763755</v>
       </c>
       <c r="G14">
-        <v>0.000775135092395917</v>
+        <v>0.0008587677095527675</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05769997482365952</v>
+        <v>0.2490658919027524</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.274256028895024</v>
       </c>
       <c r="L14">
-        <v>0.4988477260185533</v>
+        <v>0.07216555909391786</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2387565798482107</v>
       </c>
       <c r="N14">
-        <v>1.301725196402003</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.20059362671509</v>
+        <v>1.457834559700984</v>
       </c>
       <c r="C15">
-        <v>1.348466153206175</v>
+        <v>0.1017769601050134</v>
       </c>
       <c r="D15">
-        <v>0.03080174543972447</v>
+        <v>0.176372915828594</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.550025055865405</v>
+        <v>11.10601483976774</v>
       </c>
       <c r="G15">
-        <v>0.0007764980805101649</v>
+        <v>0.0008598464111394254</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05775352641007814</v>
+        <v>0.2476142332607409</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.259663421136452</v>
       </c>
       <c r="L15">
-        <v>0.4936291820172585</v>
+        <v>0.07181000359506839</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2364884881518563</v>
       </c>
       <c r="N15">
-        <v>1.30490371073391</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.649417488984113</v>
+        <v>1.3715519436075</v>
       </c>
       <c r="C16">
-        <v>1.250672740334551</v>
+        <v>0.09446224929189384</v>
       </c>
       <c r="D16">
-        <v>0.02810753421389478</v>
+        <v>0.1651758080510888</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.313666863139503</v>
+        <v>10.55743718368518</v>
       </c>
       <c r="G16">
-        <v>0.0007843140770041842</v>
+        <v>0.0008660471156798138</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05808570769220367</v>
+        <v>0.239369436732197</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.177331830148233</v>
       </c>
       <c r="L16">
-        <v>0.4641378694716138</v>
+        <v>0.06985834820564918</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2237297778299059</v>
       </c>
       <c r="N16">
-        <v>1.324314862760545</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.317492549921894</v>
+        <v>1.319785016142788</v>
       </c>
       <c r="C17">
-        <v>1.191737679956134</v>
+        <v>0.09006044651991374</v>
       </c>
       <c r="D17">
-        <v>0.02651668329212242</v>
+        <v>0.1583883731965301</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.172955086825908</v>
+        <v>10.22490865385146</v>
       </c>
       <c r="G17">
-        <v>0.0007891181327256019</v>
+        <v>0.000869870405327893</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05831124669374255</v>
+        <v>0.234372859013618</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.12790728211732</v>
       </c>
       <c r="L17">
-        <v>0.4463893099989349</v>
+        <v>0.06873449911083895</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2161042997677463</v>
       </c>
       <c r="N17">
-        <v>1.33723216677383</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.128668443191259</v>
+        <v>1.290411204237671</v>
       </c>
       <c r="C18">
-        <v>1.158193216813515</v>
+        <v>0.08755727927614032</v>
       </c>
       <c r="D18">
-        <v>0.02562224789126688</v>
+        <v>0.1545117225334849</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.093477638698488</v>
+        <v>10.03500468974309</v>
       </c>
       <c r="G18">
-        <v>0.0007918863587265599</v>
+        <v>0.0008720774522665623</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05844866001568505</v>
+        <v>0.2315196978249716</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.099851087905421</v>
       </c>
       <c r="L18">
-        <v>0.4362972709150768</v>
+        <v>0.06811386077345105</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2117880512968355</v>
       </c>
       <c r="N18">
-        <v>1.345010987039586</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.065077902369239</v>
+        <v>1.280532201809223</v>
       </c>
       <c r="C19">
-        <v>1.146893176759761</v>
+        <v>0.0867144146938017</v>
       </c>
       <c r="D19">
-        <v>0.02532274749892949</v>
+        <v>0.1532035994587773</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.066807408255698</v>
+        <v>9.970929242619718</v>
       </c>
       <c r="G19">
-        <v>0.0007928246521435589</v>
+        <v>0.0008728261726574935</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05849647896521404</v>
+        <v>0.2305570645235093</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.090413140783966</v>
       </c>
       <c r="L19">
-        <v>0.4328994102848327</v>
+        <v>0.0679080392606437</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2103382245022694</v>
       </c>
       <c r="N19">
-        <v>1.347702782288607</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.352606091589792</v>
+        <v>1.325253590543326</v>
       </c>
       <c r="C20">
-        <v>1.197974076231844</v>
+        <v>0.09052600160445934</v>
       </c>
       <c r="D20">
-        <v>0.0266838551031725</v>
+        <v>0.159108022651111</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.187780811493155</v>
+        <v>10.26016387016179</v>
       </c>
       <c r="G20">
-        <v>0.0007886062454188561</v>
+        <v>0.0008694626016153864</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05828643524819199</v>
+        <v>0.2349025675534833</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.13312958183775</v>
       </c>
       <c r="L20">
-        <v>0.4482664105712644</v>
+        <v>0.06885144120228404</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2169087337664983</v>
       </c>
       <c r="N20">
-        <v>1.335820495216424</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.344978938992085</v>
+        <v>1.480494096982738</v>
       </c>
       <c r="C21">
-        <v>1.374072374201603</v>
+        <v>0.1036943251914977</v>
       </c>
       <c r="D21">
-        <v>0.03151840964985553</v>
+        <v>0.1792913263259237</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.612476544141401</v>
+        <v>11.24898319874308</v>
       </c>
       <c r="G21">
-        <v>0.0007744815288655166</v>
+        <v>0.0008582507468538767</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05767475500609365</v>
+        <v>0.2497633815949598</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.281277480269239</v>
       </c>
       <c r="L21">
-        <v>0.5013578703038064</v>
+        <v>0.07233762404876387</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2398485845902911</v>
       </c>
       <c r="N21">
-        <v>1.300223042305348</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.01643734050117</v>
+        <v>1.586122179810161</v>
       </c>
       <c r="C22">
-        <v>1.493109179248108</v>
+        <v>0.1126180503680985</v>
       </c>
       <c r="D22">
-        <v>0.0349110709374898</v>
+        <v>0.19278518123879</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.905689135762941</v>
+        <v>11.9098655356143</v>
       </c>
       <c r="G22">
-        <v>0.0007652574235181662</v>
+        <v>0.0008509748552619419</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05735033962340452</v>
+        <v>0.2597004718380376</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.382000284607727</v>
       </c>
       <c r="L22">
-        <v>0.5373125264371907</v>
+        <v>0.07487254144616173</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2555588278881018</v>
       </c>
       <c r="N22">
-        <v>1.280557872790268</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.655745231430501</v>
+        <v>1.529333772788533</v>
       </c>
       <c r="C23">
-        <v>1.429173095478518</v>
+        <v>0.107822959359865</v>
       </c>
       <c r="D23">
-        <v>0.03307633550789291</v>
+        <v>0.185552432484684</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.74762085411632</v>
+        <v>11.55566905283712</v>
       </c>
       <c r="G23">
-        <v>0.00077018186079486</v>
+        <v>0.0008548544169007826</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05751622558192082</v>
+        <v>0.2543742165690688</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.327854879883716</v>
       </c>
       <c r="L23">
-        <v>0.5179962067567629</v>
+        <v>0.07349472686726699</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2471032431706952</v>
       </c>
       <c r="N23">
-        <v>1.290697874729076</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.33672506206392</v>
+        <v>1.322780046828598</v>
       </c>
       <c r="C24">
-        <v>1.195153556717685</v>
+        <v>0.09031543919196849</v>
       </c>
       <c r="D24">
-        <v>0.02660821442897543</v>
+        <v>0.1587825902279576</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.181073707540435</v>
+        <v>10.24422105459811</v>
       </c>
       <c r="G24">
-        <v>0.000788837649625481</v>
+        <v>0.0008696469414357593</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05829762844145669</v>
+        <v>0.2346630262021989</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.130767469317533</v>
       </c>
       <c r="L24">
-        <v>0.4474174273202323</v>
+        <v>0.06879849261213877</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2165448391843974</v>
       </c>
       <c r="N24">
-        <v>1.336457619132418</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.992171802628093</v>
+        <v>1.115055103020751</v>
       </c>
       <c r="C25">
-        <v>0.955925040095309</v>
+        <v>0.07249888470057897</v>
       </c>
       <c r="D25">
-        <v>0.0203995346039676</v>
+        <v>0.1309241707897257</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.62457510075609</v>
+        <v>8.880389333840469</v>
       </c>
       <c r="G25">
-        <v>0.0008091695516959474</v>
+        <v>0.0008859173000630284</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05943169464305598</v>
+        <v>0.2141764436107891</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9321232605549881</v>
       </c>
       <c r="L25">
-        <v>0.3756517931803671</v>
+        <v>0.06470633365850631</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1862061848215291</v>
       </c>
       <c r="N25">
-        <v>1.39897322227867</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9723562055457364</v>
+        <v>1.687052136929452</v>
       </c>
       <c r="C2">
-        <v>0.06001942178281183</v>
+        <v>0.0142452460369995</v>
       </c>
       <c r="D2">
-        <v>0.111010688049646</v>
+        <v>0.02906299646473087</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.90812040735554</v>
+        <v>7.435570652922991</v>
       </c>
       <c r="G2">
-        <v>0.0008982582116011061</v>
+        <v>0.002720002115830148</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1995741665650783</v>
+        <v>0.2805919994846136</v>
       </c>
       <c r="K2">
-        <v>0.7951724758043213</v>
+        <v>1.139673038280108</v>
       </c>
       <c r="L2">
-        <v>0.06240841889471582</v>
+        <v>0.2463169711597715</v>
       </c>
       <c r="M2">
-        <v>0.1656840580942074</v>
+        <v>0.3657989241683524</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8808865157282924</v>
+        <v>1.683526238653343</v>
       </c>
       <c r="C3">
-        <v>0.05184305656369759</v>
+        <v>0.01229971797557994</v>
       </c>
       <c r="D3">
-        <v>0.09776975496414764</v>
+        <v>0.02541701399940877</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>7.264075384704739</v>
+        <v>7.240502031138448</v>
       </c>
       <c r="G3">
-        <v>0.0009068861870730611</v>
+        <v>0.002725065492216183</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1898995662331728</v>
+        <v>0.2774878871246287</v>
       </c>
       <c r="K3">
-        <v>0.7070299884140354</v>
+        <v>1.133179916801154</v>
       </c>
       <c r="L3">
-        <v>0.06124543879131039</v>
+        <v>0.2488286527273509</v>
       </c>
       <c r="M3">
-        <v>0.1527220538968308</v>
+        <v>0.3668667972428352</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.826973765508086</v>
+        <v>1.682598546516772</v>
       </c>
       <c r="C4">
-        <v>0.04692768805595193</v>
+        <v>0.0111102631922293</v>
       </c>
       <c r="D4">
-        <v>0.08973062580334812</v>
+        <v>0.02317489508607196</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.874496683972495</v>
+        <v>7.121119473286825</v>
       </c>
       <c r="G4">
-        <v>0.0009123257078525865</v>
+        <v>0.002728336395837677</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1840455331063069</v>
+        <v>0.2755796190430928</v>
       </c>
       <c r="K4">
-        <v>0.6548851153423527</v>
+        <v>1.130181604722068</v>
       </c>
       <c r="L4">
-        <v>0.0607109060099269</v>
+        <v>0.2505163392760039</v>
       </c>
       <c r="M4">
-        <v>0.1451758974030675</v>
+        <v>0.3677776925464578</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8055246734126911</v>
+        <v>1.682531602769956</v>
       </c>
       <c r="C5">
-        <v>0.04494650050610716</v>
+        <v>0.01062672741637272</v>
       </c>
       <c r="D5">
-        <v>0.08647275208269889</v>
+        <v>0.02226020215401547</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.717017732459766</v>
+        <v>7.072565207890818</v>
       </c>
       <c r="G5">
-        <v>0.0009145795958815886</v>
+        <v>0.002729710183936132</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1816785353119315</v>
+        <v>0.2748013339626496</v>
       </c>
       <c r="K5">
-        <v>0.6340880162862561</v>
+        <v>1.129208112596345</v>
       </c>
       <c r="L5">
-        <v>0.06053620585197095</v>
+        <v>0.2512407214084078</v>
       </c>
       <c r="M5">
-        <v>0.1421972340446978</v>
+        <v>0.3682130933944165</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8019932754717161</v>
+        <v>1.682539276330942</v>
       </c>
       <c r="C6">
-        <v>0.04461872136516121</v>
+        <v>0.01054650460624629</v>
       </c>
       <c r="D6">
-        <v>0.08593274887199698</v>
+        <v>0.0221082529665253</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.690940130772447</v>
+        <v>7.064508463789281</v>
       </c>
       <c r="G6">
-        <v>0.0009149561448254643</v>
+        <v>0.002729940772997938</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1812865321492652</v>
+        <v>0.274672059168239</v>
       </c>
       <c r="K6">
-        <v>0.6306607690603983</v>
+        <v>1.129061458183841</v>
       </c>
       <c r="L6">
-        <v>0.0605097457704673</v>
+        <v>0.2513632186697166</v>
       </c>
       <c r="M6">
-        <v>0.1417082530701919</v>
+        <v>0.3682892699626841</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8266824437209266</v>
+        <v>1.682596384081791</v>
       </c>
       <c r="C7">
-        <v>0.046900886239996</v>
+        <v>0.0111037374359384</v>
       </c>
       <c r="D7">
-        <v>0.08968662151865914</v>
+        <v>0.02316256349310208</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.872367945747271</v>
+        <v>7.120464272515477</v>
       </c>
       <c r="G7">
-        <v>0.0009123559519053537</v>
+        <v>0.002728354757312413</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.184013539703507</v>
+        <v>0.2755691255340409</v>
       </c>
       <c r="K7">
-        <v>0.6546028626926557</v>
+        <v>1.13016747062089</v>
       </c>
       <c r="L7">
-        <v>0.06070837787635597</v>
+        <v>0.2505259601451968</v>
       </c>
       <c r="M7">
-        <v>0.1451353447609165</v>
+        <v>0.3677833045209589</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9403221965818318</v>
+        <v>1.685579603012826</v>
       </c>
       <c r="C8">
-        <v>0.05717557744389978</v>
+        <v>0.01357330252067612</v>
       </c>
       <c r="D8">
-        <v>0.1064234078066306</v>
+        <v>0.02780649782023659</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.684711756936366</v>
+        <v>7.368228062775358</v>
       </c>
       <c r="G8">
-        <v>0.0009012046572499175</v>
+        <v>0.002721714435544965</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1962185210259122</v>
+        <v>0.2795221456014261</v>
       </c>
       <c r="K8">
-        <v>0.7643432187065287</v>
+        <v>1.137228906247287</v>
       </c>
       <c r="L8">
-        <v>0.06196888938669431</v>
+        <v>0.2471528281345599</v>
       </c>
       <c r="M8">
-        <v>0.1611245522677613</v>
+        <v>0.3661141711567026</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.183268412324082</v>
+        <v>1.701251215678781</v>
       </c>
       <c r="C9">
-        <v>0.07838407830416827</v>
+        <v>0.01846170618036069</v>
       </c>
       <c r="D9">
-        <v>0.1401982466781533</v>
+        <v>0.03689230374321539</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>9.334114145490759</v>
+        <v>7.857352361602011</v>
       </c>
       <c r="G9">
-        <v>0.0008803861362607306</v>
+        <v>0.002709971552365849</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2209911100648867</v>
+        <v>0.2872587706116292</v>
       </c>
       <c r="K9">
-        <v>0.9974256834032076</v>
+        <v>1.158933218629784</v>
       </c>
       <c r="L9">
-        <v>0.06596618878418781</v>
+        <v>0.2416906065217717</v>
       </c>
       <c r="M9">
-        <v>0.1961166168318904</v>
+        <v>0.3648654548602259</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.377515174312947</v>
+        <v>1.71876523322419</v>
       </c>
       <c r="C10">
-        <v>0.0949686040345199</v>
+        <v>0.02208834487259992</v>
       </c>
       <c r="D10">
-        <v>0.1659541927513999</v>
+        <v>0.04356454382467234</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.59557311025097</v>
+        <v>8.218960621473627</v>
       </c>
       <c r="G10">
-        <v>0.0008656118722976983</v>
+        <v>0.002702114660470775</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2399425192310147</v>
+        <v>0.2929386021352869</v>
       </c>
       <c r="K10">
-        <v>1.18302374049145</v>
+        <v>1.179693396760257</v>
       </c>
       <c r="L10">
-        <v>0.06999016533427493</v>
+        <v>0.2383774911905761</v>
       </c>
       <c r="M10">
-        <v>0.2246096549493259</v>
+        <v>0.3651823166050647</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.470201654333295</v>
+        <v>1.72803903261925</v>
       </c>
       <c r="C11">
-        <v>0.1028235774186328</v>
+        <v>0.0237474354703977</v>
       </c>
       <c r="D11">
-        <v>0.1779668131917305</v>
+        <v>0.04660135896612871</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.18409846029436</v>
+        <v>8.384012649488113</v>
       </c>
       <c r="G11">
-        <v>0.0008589739229732918</v>
+        <v>0.002698705770776854</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2487879898832048</v>
+        <v>0.2955226952257135</v>
       </c>
       <c r="K11">
-        <v>1.271460268419418</v>
+        <v>1.190188849164912</v>
       </c>
       <c r="L11">
-        <v>0.07209722428363818</v>
+        <v>0.2370217400090482</v>
       </c>
       <c r="M11">
-        <v>0.2383218936853559</v>
+        <v>0.365594618688597</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.506007109873764</v>
+        <v>1.73173886385888</v>
       </c>
       <c r="C12">
-        <v>0.1058516803356184</v>
+        <v>0.02437715499475246</v>
       </c>
       <c r="D12">
-        <v>0.1825668829544611</v>
+        <v>0.04775170870603063</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.40943577331177</v>
+        <v>8.44659734941223</v>
       </c>
       <c r="G12">
-        <v>0.0008564694116388041</v>
+        <v>0.00269743852979335</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2521755788171944</v>
+        <v>0.2965013482389125</v>
       </c>
       <c r="K12">
-        <v>1.305610126371619</v>
+        <v>1.194314816971655</v>
       </c>
       <c r="L12">
-        <v>0.07293875467991739</v>
+        <v>0.236530083130873</v>
       </c>
       <c r="M12">
-        <v>0.243636222300875</v>
+        <v>0.3657893104535859</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.498262836289769</v>
+        <v>1.7309336729611</v>
       </c>
       <c r="C13">
-        <v>0.1051969850617098</v>
+        <v>0.02424146688612439</v>
       </c>
       <c r="D13">
-        <v>0.1815737530904187</v>
+        <v>0.04750394134370595</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.36078897081904</v>
+        <v>8.433114866134645</v>
       </c>
       <c r="G13">
-        <v>0.0008570084448591151</v>
+        <v>0.002697710403881949</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2514442119196403</v>
+        <v>0.2962905716769768</v>
       </c>
       <c r="K13">
-        <v>1.298224484766223</v>
+        <v>1.193419469122915</v>
       </c>
       <c r="L13">
-        <v>0.0727555085116478</v>
+        <v>0.2366350040323937</v>
       </c>
       <c r="M13">
-        <v>0.2424860294536622</v>
+        <v>0.3657456650038391</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.473132690483055</v>
+        <v>1.728339650299262</v>
       </c>
       <c r="C14">
-        <v>0.1030715715917836</v>
+        <v>0.02379921297236365</v>
       </c>
       <c r="D14">
-        <v>0.1783441857838994</v>
+        <v>0.04669599059906204</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.20258523763755</v>
+        <v>8.38915984619689</v>
       </c>
       <c r="G14">
-        <v>0.0008587677095527675</v>
+        <v>0.002698601041319259</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2490658919027524</v>
+        <v>0.2956032069372299</v>
       </c>
       <c r="K14">
-        <v>1.274256028895024</v>
+        <v>1.190525255279283</v>
       </c>
       <c r="L14">
-        <v>0.07216555909391786</v>
+        <v>0.2369808556612298</v>
       </c>
       <c r="M14">
-        <v>0.2387565798482107</v>
+        <v>0.3656098632445719</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.457834559700984</v>
+        <v>1.726775230476761</v>
       </c>
       <c r="C15">
-        <v>0.1017769601050134</v>
+        <v>0.02352851308253889</v>
       </c>
       <c r="D15">
-        <v>0.176372915828594</v>
+        <v>0.04620115047579532</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.10601483976774</v>
+        <v>8.362247046043706</v>
       </c>
       <c r="G15">
-        <v>0.0008598464111394254</v>
+        <v>0.002699149656138123</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2476142332607409</v>
+        <v>0.2951821929544209</v>
       </c>
       <c r="K15">
-        <v>1.259663421136452</v>
+        <v>1.188772215171213</v>
       </c>
       <c r="L15">
-        <v>0.07181000359506839</v>
+        <v>0.2371955295160149</v>
       </c>
       <c r="M15">
-        <v>0.2364884881518563</v>
+        <v>0.3655317027168508</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.3715519436075</v>
+        <v>1.718185473724816</v>
       </c>
       <c r="C16">
-        <v>0.09446224929189384</v>
+        <v>0.02198011693548096</v>
       </c>
       <c r="D16">
-        <v>0.1651758080510888</v>
+        <v>0.04336612511698945</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.55743718368518</v>
+        <v>8.208185526961756</v>
       </c>
       <c r="G16">
-        <v>0.0008660471156798138</v>
+        <v>0.002702340753141414</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.239369436732197</v>
+        <v>0.2927697376456138</v>
       </c>
       <c r="K16">
-        <v>1.177331830148233</v>
+        <v>1.179028684202933</v>
       </c>
       <c r="L16">
-        <v>0.06985834820564918</v>
+        <v>0.2384691363140377</v>
       </c>
       <c r="M16">
-        <v>0.2237297778299059</v>
+        <v>0.3651607677675948</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.319785016142788</v>
+        <v>1.71325069244449</v>
       </c>
       <c r="C17">
-        <v>0.09006044651991374</v>
+        <v>0.02103269566129029</v>
       </c>
       <c r="D17">
-        <v>0.1583883731965301</v>
+        <v>0.0416274375771053</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.22490865385146</v>
+        <v>8.113818179394229</v>
       </c>
       <c r="G17">
-        <v>0.000869870405327893</v>
+        <v>0.00270434061867908</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.234372859013618</v>
+        <v>0.2912899022629531</v>
       </c>
       <c r="K17">
-        <v>1.12790728211732</v>
+        <v>1.173320918570283</v>
       </c>
       <c r="L17">
-        <v>0.06873449911083895</v>
+        <v>0.2392892053612385</v>
       </c>
       <c r="M17">
-        <v>0.2161042997677463</v>
+        <v>0.3650018931248056</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.290411204237671</v>
+        <v>1.710535308288343</v>
       </c>
       <c r="C18">
-        <v>0.08755727927614032</v>
+        <v>0.02048863356736064</v>
       </c>
       <c r="D18">
-        <v>0.1545117225334849</v>
+        <v>0.04062753037274547</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>10.03500468974309</v>
+        <v>8.059592578860588</v>
       </c>
       <c r="G18">
-        <v>0.0008720774522665623</v>
+        <v>0.002705506450615674</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2315196978249716</v>
+        <v>0.2904387650611255</v>
       </c>
       <c r="K18">
-        <v>1.099851087905421</v>
+        <v>1.17013691676263</v>
       </c>
       <c r="L18">
-        <v>0.06811386077345105</v>
+        <v>0.2397751400289607</v>
       </c>
       <c r="M18">
-        <v>0.2117880512968355</v>
+        <v>0.3649357529147217</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.280532201809223</v>
+        <v>1.7096370417282</v>
       </c>
       <c r="C19">
-        <v>0.0867144146938017</v>
+        <v>0.02030456924726565</v>
       </c>
       <c r="D19">
-        <v>0.1532035994587773</v>
+        <v>0.04028899854354506</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.970929242619718</v>
+        <v>8.041241552928881</v>
       </c>
       <c r="G19">
-        <v>0.0008728261726574935</v>
+        <v>0.00270590385791758</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2305570645235093</v>
+        <v>0.2901505868392107</v>
       </c>
       <c r="K19">
-        <v>1.090413140783966</v>
+        <v>1.169075853248131</v>
       </c>
       <c r="L19">
-        <v>0.0679080392606437</v>
+        <v>0.2399421181368879</v>
       </c>
       <c r="M19">
-        <v>0.2103382245022694</v>
+        <v>0.3649176940362473</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.325253590543326</v>
+        <v>1.713763280175641</v>
       </c>
       <c r="C20">
-        <v>0.09052600160445934</v>
+        <v>0.0211334594210939</v>
       </c>
       <c r="D20">
-        <v>0.159108022651111</v>
+        <v>0.04181250829401506</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.26016387016179</v>
+        <v>8.123858338718321</v>
       </c>
       <c r="G20">
-        <v>0.0008694626016153864</v>
+        <v>0.002704126120111836</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2349025675534833</v>
+        <v>0.2914474301824299</v>
       </c>
       <c r="K20">
-        <v>1.13312958183775</v>
+        <v>1.17391827608219</v>
       </c>
       <c r="L20">
-        <v>0.06885144120228404</v>
+        <v>0.2392004327753483</v>
       </c>
       <c r="M20">
-        <v>0.2169087337664983</v>
+        <v>0.3650161933375102</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.480494096982738</v>
+        <v>1.729096472809942</v>
       </c>
       <c r="C21">
-        <v>0.1036943251914977</v>
+        <v>0.02392907315017112</v>
       </c>
       <c r="D21">
-        <v>0.1792913263259237</v>
+        <v>0.04693329400282664</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.24898319874308</v>
+        <v>8.402068219588784</v>
       </c>
       <c r="G21">
-        <v>0.0008582507468538767</v>
+        <v>0.002698338799149548</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2497633815949598</v>
+        <v>0.295805099006067</v>
       </c>
       <c r="K21">
-        <v>1.281277480269239</v>
+        <v>1.191371239619087</v>
       </c>
       <c r="L21">
-        <v>0.07233762404876387</v>
+        <v>0.2368786809976839</v>
       </c>
       <c r="M21">
-        <v>0.2398485845902911</v>
+        <v>0.3656487049334594</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.586122179810161</v>
+        <v>1.74021375382938</v>
       </c>
       <c r="C22">
-        <v>0.1126180503680985</v>
+        <v>0.02576472206773417</v>
       </c>
       <c r="D22">
-        <v>0.19278518123879</v>
+        <v>0.05028227052575573</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.9098655356143</v>
+        <v>8.584380280139953</v>
       </c>
       <c r="G22">
-        <v>0.0008509748552619419</v>
+        <v>0.00269469413137926</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2597004718380376</v>
+        <v>0.2986537786448977</v>
       </c>
       <c r="K22">
-        <v>1.382000284607727</v>
+        <v>1.203661389128285</v>
       </c>
       <c r="L22">
-        <v>0.07487254144616173</v>
+        <v>0.2354879646694386</v>
       </c>
       <c r="M22">
-        <v>0.2555588278881018</v>
+        <v>0.366286858540974</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.529333772788533</v>
+        <v>1.734179896941754</v>
       </c>
       <c r="C23">
-        <v>0.107822959359865</v>
+        <v>0.02478417955670409</v>
       </c>
       <c r="D23">
-        <v>0.185552432484684</v>
+        <v>0.04849460450958532</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.55566905283712</v>
+        <v>8.487031340203828</v>
       </c>
       <c r="G23">
-        <v>0.0008548544169007826</v>
+        <v>0.002696626804491458</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2543742165690688</v>
+        <v>0.2971332986538329</v>
       </c>
       <c r="K23">
-        <v>1.327854879883716</v>
+        <v>1.197020931174848</v>
       </c>
       <c r="L23">
-        <v>0.07349472686726699</v>
+        <v>0.2362186358348382</v>
       </c>
       <c r="M23">
-        <v>0.2471032431706952</v>
+        <v>0.3659256964154523</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.322780046828598</v>
+        <v>1.713531160231071</v>
       </c>
       <c r="C24">
-        <v>0.09031543919196849</v>
+        <v>0.02108790219450185</v>
       </c>
       <c r="D24">
-        <v>0.1587825902279576</v>
+        <v>0.04172883880947609</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10.24422105459811</v>
+        <v>8.1193190974343</v>
       </c>
       <c r="G24">
-        <v>0.0008696469414357593</v>
+        <v>0.002704223044707911</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2346630262021989</v>
+        <v>0.2913762129389994</v>
       </c>
       <c r="K24">
-        <v>1.130767469317533</v>
+        <v>1.173647907173375</v>
       </c>
       <c r="L24">
-        <v>0.06879849261213877</v>
+        <v>0.2392405217985569</v>
       </c>
       <c r="M24">
-        <v>0.2165448391843974</v>
+        <v>0.3650096497192514</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.115055103020751</v>
+        <v>1.695958916950417</v>
       </c>
       <c r="C25">
-        <v>0.07249888470057897</v>
+        <v>0.01713362825867648</v>
       </c>
       <c r="D25">
-        <v>0.1309241707897257</v>
+        <v>0.03443559714978051</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.880389333840469</v>
+        <v>7.724655395515157</v>
       </c>
       <c r="G25">
-        <v>0.0008859173000630284</v>
+        <v>0.002713012341840695</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2141764436107891</v>
+        <v>0.285166922590065</v>
       </c>
       <c r="K25">
-        <v>0.9321232605549881</v>
+        <v>1.152218037724055</v>
       </c>
       <c r="L25">
-        <v>0.06470633365850631</v>
+        <v>0.243045174547099</v>
       </c>
       <c r="M25">
-        <v>0.1862061848215291</v>
+        <v>0.3649865303367683</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.687052136929452</v>
+        <v>0.9723562055457933</v>
       </c>
       <c r="C2">
-        <v>0.0142452460369995</v>
+        <v>0.06001942178241393</v>
       </c>
       <c r="D2">
-        <v>0.02906299646473087</v>
+        <v>0.1110106880497028</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.435570652922991</v>
+        <v>7.908120407355455</v>
       </c>
       <c r="G2">
-        <v>0.002720002115830148</v>
+        <v>0.0008982582117008567</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2805919994846136</v>
+        <v>0.1995741665651281</v>
       </c>
       <c r="K2">
-        <v>1.139673038280108</v>
+        <v>0.7951724758041223</v>
       </c>
       <c r="L2">
-        <v>0.2463169711597715</v>
+        <v>0.06240841889485438</v>
       </c>
       <c r="M2">
-        <v>0.3657989241683524</v>
+        <v>0.1656840580942429</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.683526238653343</v>
+        <v>0.8808865157283776</v>
       </c>
       <c r="C3">
-        <v>0.01229971797557994</v>
+        <v>0.05184305656326416</v>
       </c>
       <c r="D3">
-        <v>0.02541701399940877</v>
+        <v>0.09776975496406948</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>7.240502031138448</v>
+        <v>7.264075384704796</v>
       </c>
       <c r="G3">
-        <v>0.002725065492216183</v>
+        <v>0.0009068861872149373</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2774878871246287</v>
+        <v>0.1898995662331515</v>
       </c>
       <c r="K3">
-        <v>1.133179916801154</v>
+        <v>0.707029988413808</v>
       </c>
       <c r="L3">
-        <v>0.2488286527273509</v>
+        <v>0.06124543879127486</v>
       </c>
       <c r="M3">
-        <v>0.3668667972428352</v>
+        <v>0.1527220538968486</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.682598546516772</v>
+        <v>0.8269737655082565</v>
       </c>
       <c r="C4">
-        <v>0.0111102631922293</v>
+        <v>0.04692768805618641</v>
       </c>
       <c r="D4">
-        <v>0.02317489508607196</v>
+        <v>0.08973062580333391</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7.121119473286825</v>
+        <v>6.874496683972524</v>
       </c>
       <c r="G4">
-        <v>0.002728336395837677</v>
+        <v>0.0009123257078517283</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2755796190430928</v>
+        <v>0.1840455331064277</v>
       </c>
       <c r="K4">
-        <v>1.130181604722068</v>
+        <v>0.6548851153425375</v>
       </c>
       <c r="L4">
-        <v>0.2505163392760039</v>
+        <v>0.06071090600991269</v>
       </c>
       <c r="M4">
-        <v>0.3677776925464578</v>
+        <v>0.1451758974030817</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.682531602769956</v>
+        <v>0.8055246734124069</v>
       </c>
       <c r="C5">
-        <v>0.01062672741637272</v>
+        <v>0.04494650050575189</v>
       </c>
       <c r="D5">
-        <v>0.02226020215401547</v>
+        <v>0.08647275208301153</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7.072565207890818</v>
+        <v>6.717017732459709</v>
       </c>
       <c r="G5">
-        <v>0.002729710183936132</v>
+        <v>0.0009145795958199991</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2748013339626496</v>
+        <v>0.1816785353118391</v>
       </c>
       <c r="K5">
-        <v>1.129208112596345</v>
+        <v>0.6340880162862419</v>
       </c>
       <c r="L5">
-        <v>0.2512407214084078</v>
+        <v>0.06053620585205621</v>
       </c>
       <c r="M5">
-        <v>0.3682130933944165</v>
+        <v>0.1421972340446906</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.682539276330942</v>
+        <v>0.8019932754716876</v>
       </c>
       <c r="C6">
-        <v>0.01054650460624629</v>
+        <v>0.04461872136553069</v>
       </c>
       <c r="D6">
-        <v>0.0221082529665253</v>
+        <v>0.08593274887179803</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>7.064508463789281</v>
+        <v>6.690940130772503</v>
       </c>
       <c r="G6">
-        <v>0.002729940772997938</v>
+        <v>0.0009149561448327869</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.274672059168239</v>
+        <v>0.1812865321492296</v>
       </c>
       <c r="K6">
-        <v>1.129061458183841</v>
+        <v>0.6306607690605404</v>
       </c>
       <c r="L6">
-        <v>0.2513632186697166</v>
+        <v>0.06050974577033941</v>
       </c>
       <c r="M6">
-        <v>0.3682892699626841</v>
+        <v>0.1417082530702061</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.682596384081791</v>
+        <v>0.8266824437208129</v>
       </c>
       <c r="C7">
-        <v>0.0111037374359384</v>
+        <v>0.04690088623971178</v>
       </c>
       <c r="D7">
-        <v>0.02316256349310208</v>
+        <v>0.08968662151877993</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>7.120464272515477</v>
+        <v>6.872367945747328</v>
       </c>
       <c r="G7">
-        <v>0.002728354757312413</v>
+        <v>0.0009123559518038554</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2755691255340409</v>
+        <v>0.1840135397034999</v>
       </c>
       <c r="K7">
-        <v>1.13016747062089</v>
+        <v>0.6546028626926557</v>
       </c>
       <c r="L7">
-        <v>0.2505259601451968</v>
+        <v>0.06070837787632399</v>
       </c>
       <c r="M7">
-        <v>0.3677833045209589</v>
+        <v>0.1451353447609023</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.685579603012826</v>
+        <v>0.9403221965816044</v>
       </c>
       <c r="C8">
-        <v>0.01357330252067612</v>
+        <v>0.05717557744424795</v>
       </c>
       <c r="D8">
-        <v>0.02780649782023659</v>
+        <v>0.1064234078068438</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.368228062775358</v>
+        <v>7.684711756936309</v>
       </c>
       <c r="G8">
-        <v>0.002721714435544965</v>
+        <v>0.0009012046572430793</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2795221456014261</v>
+        <v>0.1962185210258198</v>
       </c>
       <c r="K8">
-        <v>1.137228906247287</v>
+        <v>0.764343218706756</v>
       </c>
       <c r="L8">
-        <v>0.2471528281345599</v>
+        <v>0.06196888938691103</v>
       </c>
       <c r="M8">
-        <v>0.3661141711567026</v>
+        <v>0.1611245522677436</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.701251215678781</v>
+        <v>1.18326841232394</v>
       </c>
       <c r="C9">
-        <v>0.01846170618036069</v>
+        <v>0.0783840783046017</v>
       </c>
       <c r="D9">
-        <v>0.03689230374321539</v>
+        <v>0.1401982466781106</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7.857352361602011</v>
+        <v>9.334114145490872</v>
       </c>
       <c r="G9">
-        <v>0.002709971552365849</v>
+        <v>0.0008803861359103873</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2872587706116292</v>
+        <v>0.2209911100650075</v>
       </c>
       <c r="K9">
-        <v>1.158933218629784</v>
+        <v>0.9974256834030939</v>
       </c>
       <c r="L9">
-        <v>0.2416906065217717</v>
+        <v>0.06596618878432992</v>
       </c>
       <c r="M9">
-        <v>0.3648654548602259</v>
+        <v>0.1961166168319117</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.71876523322419</v>
+        <v>1.377515174312691</v>
       </c>
       <c r="C10">
-        <v>0.02208834487259992</v>
+        <v>0.09496860403446306</v>
       </c>
       <c r="D10">
-        <v>0.04356454382467234</v>
+        <v>0.1659541927513573</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>8.218960621473627</v>
+        <v>10.59557311025105</v>
       </c>
       <c r="G10">
-        <v>0.002702114660470775</v>
+        <v>0.0008656118720542873</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2929386021352869</v>
+        <v>0.2399425192309224</v>
       </c>
       <c r="K10">
-        <v>1.179693396760257</v>
+        <v>1.183023740491706</v>
       </c>
       <c r="L10">
-        <v>0.2383774911905761</v>
+        <v>0.06999016533429625</v>
       </c>
       <c r="M10">
-        <v>0.3651823166050647</v>
+        <v>0.224609654949294</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.72803903261925</v>
+        <v>1.470201654332925</v>
       </c>
       <c r="C11">
-        <v>0.0237474354703977</v>
+        <v>0.1028235774182065</v>
       </c>
       <c r="D11">
-        <v>0.04660135896612871</v>
+        <v>0.1779668131918015</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>8.384012649488113</v>
+        <v>11.18409846029431</v>
       </c>
       <c r="G11">
-        <v>0.002698705770776854</v>
+        <v>0.0008589739229876684</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2955226952257135</v>
+        <v>0.2487879898830982</v>
       </c>
       <c r="K11">
-        <v>1.190188849164912</v>
+        <v>1.271460268419588</v>
       </c>
       <c r="L11">
-        <v>0.2370217400090482</v>
+        <v>0.07209722428356713</v>
       </c>
       <c r="M11">
-        <v>0.365594618688597</v>
+        <v>0.2383218936853808</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.73173886385888</v>
+        <v>1.506007109874247</v>
       </c>
       <c r="C12">
-        <v>0.02437715499475246</v>
+        <v>0.1058516803359737</v>
       </c>
       <c r="D12">
-        <v>0.04775170870603063</v>
+        <v>0.1825668829545606</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>8.44659734941223</v>
+        <v>11.40943577331194</v>
       </c>
       <c r="G12">
-        <v>0.00269743852979335</v>
+        <v>0.0008564694114977702</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2965013482389125</v>
+        <v>0.2521755788171305</v>
       </c>
       <c r="K12">
-        <v>1.194314816971655</v>
+        <v>1.305610126371732</v>
       </c>
       <c r="L12">
-        <v>0.236530083130873</v>
+        <v>0.07293875467998845</v>
       </c>
       <c r="M12">
-        <v>0.3657893104535859</v>
+        <v>0.2436362223008715</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.7309336729611</v>
+        <v>1.498262836289967</v>
       </c>
       <c r="C13">
-        <v>0.02424146688612439</v>
+        <v>0.1051969850622498</v>
       </c>
       <c r="D13">
-        <v>0.04750394134370595</v>
+        <v>0.181573753090305</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>8.433114866134645</v>
+        <v>11.36078897081876</v>
       </c>
       <c r="G13">
-        <v>0.002697710403881949</v>
+        <v>0.0008570084448706346</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2962905716769768</v>
+        <v>0.2514442119193845</v>
       </c>
       <c r="K13">
-        <v>1.193419469122915</v>
+        <v>1.298224484766223</v>
       </c>
       <c r="L13">
-        <v>0.2366350040323937</v>
+        <v>0.0727555085115128</v>
       </c>
       <c r="M13">
-        <v>0.3657456650038391</v>
+        <v>0.2424860294536941</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.728339650299262</v>
+        <v>1.473132690483425</v>
       </c>
       <c r="C14">
-        <v>0.02379921297236365</v>
+        <v>0.1030715715927215</v>
       </c>
       <c r="D14">
-        <v>0.04669599059906204</v>
+        <v>0.1783441857836152</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>8.38915984619689</v>
+        <v>11.20258523763755</v>
       </c>
       <c r="G14">
-        <v>0.002698601041319259</v>
+        <v>0.0008587677092991297</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2956032069372299</v>
+        <v>0.2490658919025464</v>
       </c>
       <c r="K14">
-        <v>1.190525255279283</v>
+        <v>1.274256028894854</v>
       </c>
       <c r="L14">
-        <v>0.2369808556612298</v>
+        <v>0.07216555909398892</v>
       </c>
       <c r="M14">
-        <v>0.3656098632445719</v>
+        <v>0.2387565798482036</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.726775230476761</v>
+        <v>1.457834559701155</v>
       </c>
       <c r="C15">
-        <v>0.02352851308253889</v>
+        <v>0.101776960104587</v>
       </c>
       <c r="D15">
-        <v>0.04620115047579532</v>
+        <v>0.1763729158289635</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>8.362247046043706</v>
+        <v>11.10601483976751</v>
       </c>
       <c r="G15">
-        <v>0.002699149656138123</v>
+        <v>0.0008598464109114601</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2951821929544209</v>
+        <v>0.2476142332608333</v>
       </c>
       <c r="K15">
-        <v>1.188772215171213</v>
+        <v>1.259663421136537</v>
       </c>
       <c r="L15">
-        <v>0.2371955295160149</v>
+        <v>0.07181000359516077</v>
       </c>
       <c r="M15">
-        <v>0.3655317027168508</v>
+        <v>0.2364884881518847</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.718185473724816</v>
+        <v>1.371551943607642</v>
       </c>
       <c r="C16">
-        <v>0.02198011693548096</v>
+        <v>0.09446224929186542</v>
       </c>
       <c r="D16">
-        <v>0.04336612511698945</v>
+        <v>0.1651758080510177</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>8.208185526961756</v>
+        <v>10.55743718368524</v>
       </c>
       <c r="G16">
-        <v>0.002702340753141414</v>
+        <v>0.0008660471156685764</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2927697376456138</v>
+        <v>0.2393694367322894</v>
       </c>
       <c r="K16">
-        <v>1.179028684202933</v>
+        <v>1.177331830148574</v>
       </c>
       <c r="L16">
-        <v>0.2384691363140377</v>
+        <v>0.06985834820562786</v>
       </c>
       <c r="M16">
-        <v>0.3651607677675948</v>
+        <v>0.2237297778299272</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.71325069244449</v>
+        <v>1.319785016142674</v>
       </c>
       <c r="C17">
-        <v>0.02103269566129029</v>
+        <v>0.09006044652032585</v>
       </c>
       <c r="D17">
-        <v>0.0416274375771053</v>
+        <v>0.158388373196189</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>8.113818179394229</v>
+        <v>10.2249086538516</v>
       </c>
       <c r="G17">
-        <v>0.00270434061867908</v>
+        <v>0.0008698704053090652</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2912899022629531</v>
+        <v>0.2343728590136607</v>
       </c>
       <c r="K17">
-        <v>1.173320918570283</v>
+        <v>1.127907282117434</v>
       </c>
       <c r="L17">
-        <v>0.2392892053612385</v>
+        <v>0.06873449911086738</v>
       </c>
       <c r="M17">
-        <v>0.3650018931248056</v>
+        <v>0.2161042997677178</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.710535308288343</v>
+        <v>1.290411204237699</v>
       </c>
       <c r="C18">
-        <v>0.02048863356736064</v>
+        <v>0.08755727927617585</v>
       </c>
       <c r="D18">
-        <v>0.04062753037274547</v>
+        <v>0.1545117225334849</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>8.059592578860588</v>
+        <v>10.03500468974295</v>
       </c>
       <c r="G18">
-        <v>0.002705506450615674</v>
+        <v>0.0008720774522692931</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2904387650611255</v>
+        <v>0.2315196978250214</v>
       </c>
       <c r="K18">
-        <v>1.17013691676263</v>
+        <v>1.09985108790525</v>
       </c>
       <c r="L18">
-        <v>0.2397751400289607</v>
+        <v>0.06811386077338</v>
       </c>
       <c r="M18">
-        <v>0.3649357529147217</v>
+        <v>0.2117880512968462</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.7096370417282</v>
+        <v>1.280532201809478</v>
       </c>
       <c r="C19">
-        <v>0.02030456924726565</v>
+        <v>0.08671441469383723</v>
       </c>
       <c r="D19">
-        <v>0.04028899854354506</v>
+        <v>0.1532035994583367</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8.041241552928881</v>
+        <v>9.970929242619604</v>
       </c>
       <c r="G19">
-        <v>0.00270590385791758</v>
+        <v>0.0008728261725489679</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2901505868392107</v>
+        <v>0.2305570645236017</v>
       </c>
       <c r="K19">
-        <v>1.169075853248131</v>
+        <v>1.090413140784278</v>
       </c>
       <c r="L19">
-        <v>0.2399421181368879</v>
+        <v>0.06790803926071476</v>
       </c>
       <c r="M19">
-        <v>0.3649176940362473</v>
+        <v>0.2103382245022907</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.713763280175641</v>
+        <v>1.325253590542928</v>
       </c>
       <c r="C20">
-        <v>0.0211334594210939</v>
+        <v>0.09052600160450197</v>
       </c>
       <c r="D20">
-        <v>0.04181250829401506</v>
+        <v>0.1591080226511536</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>8.123858338718321</v>
+        <v>10.26016387016173</v>
       </c>
       <c r="G20">
-        <v>0.002704126120111836</v>
+        <v>0.000869462601507221</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2914474301824299</v>
+        <v>0.2349025675534477</v>
       </c>
       <c r="K20">
-        <v>1.17391827608219</v>
+        <v>1.133129581837608</v>
       </c>
       <c r="L20">
-        <v>0.2392004327753483</v>
+        <v>0.0688514412022414</v>
       </c>
       <c r="M20">
-        <v>0.3650161933375102</v>
+        <v>0.2169087337664877</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.729096472809942</v>
+        <v>1.480494096982682</v>
       </c>
       <c r="C21">
-        <v>0.02392907315017112</v>
+        <v>0.1036943251914408</v>
       </c>
       <c r="D21">
-        <v>0.04693329400282664</v>
+        <v>0.1792913263258811</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>8.402068219588784</v>
+        <v>11.24898319874302</v>
       </c>
       <c r="G21">
-        <v>0.002698338799149548</v>
+        <v>0.0008582507468459212</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.295805099006067</v>
+        <v>0.2497633815948674</v>
       </c>
       <c r="K21">
-        <v>1.191371239619087</v>
+        <v>1.281277480269125</v>
       </c>
       <c r="L21">
-        <v>0.2368786809976839</v>
+        <v>0.07233762404852939</v>
       </c>
       <c r="M21">
-        <v>0.3656487049334594</v>
+        <v>0.2398485845902698</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.74021375382938</v>
+        <v>1.586122179810133</v>
       </c>
       <c r="C22">
-        <v>0.02576472206773417</v>
+        <v>0.1126180503679421</v>
       </c>
       <c r="D22">
-        <v>0.05028227052575573</v>
+        <v>0.1927851812386052</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>8.584380280139953</v>
+        <v>11.90986553561447</v>
       </c>
       <c r="G22">
-        <v>0.00269469413137926</v>
+        <v>0.0008509748554723041</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2986537786448977</v>
+        <v>0.2597004718378813</v>
       </c>
       <c r="K22">
-        <v>1.203661389128285</v>
+        <v>1.382000284607528</v>
       </c>
       <c r="L22">
-        <v>0.2354879646694386</v>
+        <v>0.07487254144635358</v>
       </c>
       <c r="M22">
-        <v>0.366286858540974</v>
+        <v>0.2555588278881125</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.734179896941754</v>
+        <v>1.529333772788277</v>
       </c>
       <c r="C23">
-        <v>0.02478417955670409</v>
+        <v>0.1078229593593818</v>
       </c>
       <c r="D23">
-        <v>0.04849460450958532</v>
+        <v>0.185552432484215</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>8.487031340203828</v>
+        <v>11.55566905283712</v>
       </c>
       <c r="G23">
-        <v>0.002696626804491458</v>
+        <v>0.0008548544170134225</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2971332986538329</v>
+        <v>0.2543742165690261</v>
       </c>
       <c r="K23">
-        <v>1.197020931174848</v>
+        <v>1.327854879883944</v>
       </c>
       <c r="L23">
-        <v>0.2362186358348382</v>
+        <v>0.07349472686735226</v>
       </c>
       <c r="M23">
-        <v>0.3659256964154523</v>
+        <v>0.2471032431707272</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.713531160231071</v>
+        <v>1.322780046829109</v>
       </c>
       <c r="C24">
-        <v>0.02108790219450185</v>
+        <v>0.0903154391923664</v>
       </c>
       <c r="D24">
-        <v>0.04172883880947609</v>
+        <v>0.1587825902283413</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>8.1193190974343</v>
+        <v>10.2442210545982</v>
       </c>
       <c r="G24">
-        <v>0.002704223044707911</v>
+        <v>0.0008696469414197826</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2913762129389994</v>
+        <v>0.2346630262021279</v>
       </c>
       <c r="K24">
-        <v>1.173647907173375</v>
+        <v>1.130767469317675</v>
       </c>
       <c r="L24">
-        <v>0.2392405217985569</v>
+        <v>0.06879849261205351</v>
       </c>
       <c r="M24">
-        <v>0.3650096497192514</v>
+        <v>0.216544839184408</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.695958916950417</v>
+        <v>1.115055103020637</v>
       </c>
       <c r="C25">
-        <v>0.01713362825867648</v>
+        <v>0.07249888470065713</v>
       </c>
       <c r="D25">
-        <v>0.03443559714978051</v>
+        <v>0.1309241707897684</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.724655395515157</v>
+        <v>8.880389333840469</v>
       </c>
       <c r="G25">
-        <v>0.002713012341840695</v>
+        <v>0.0008859173000699272</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.285166922590065</v>
+        <v>0.2141764436106754</v>
       </c>
       <c r="K25">
-        <v>1.152218037724055</v>
+        <v>0.9321232605549881</v>
       </c>
       <c r="L25">
-        <v>0.243045174547099</v>
+        <v>0.06470633365859868</v>
       </c>
       <c r="M25">
-        <v>0.3649865303367683</v>
+        <v>0.186206184821522</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9723562055457933</v>
+        <v>2.978055767066849</v>
       </c>
       <c r="C2">
-        <v>0.06001942178241393</v>
+        <v>0.5257545422241208</v>
       </c>
       <c r="D2">
-        <v>0.1110106880497028</v>
+        <v>0.04330775697131273</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.908120407355455</v>
+        <v>1.217061690439238</v>
       </c>
       <c r="G2">
-        <v>0.0008982582117008567</v>
+        <v>0.9842233421885567</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002564666413845007</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001837279195709751</v>
       </c>
       <c r="J2">
-        <v>0.1995741665651281</v>
+        <v>0.6499035342908712</v>
       </c>
       <c r="K2">
-        <v>0.7951724758041223</v>
+        <v>0.5951234670003984</v>
       </c>
       <c r="L2">
-        <v>0.06240841889485438</v>
+        <v>0.07636816009535252</v>
       </c>
       <c r="M2">
-        <v>0.1656840580942429</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3704000259017164</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8452717674305887</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8808865157283776</v>
+        <v>2.599736162130455</v>
       </c>
       <c r="C3">
-        <v>0.05184305656326416</v>
+        <v>0.4593312508253575</v>
       </c>
       <c r="D3">
-        <v>0.09776975496406948</v>
+        <v>0.04025540602358291</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>7.264075384704796</v>
+        <v>1.139160982776374</v>
       </c>
       <c r="G3">
-        <v>0.0009068861872149373</v>
+        <v>0.9106654848146718</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004463333072082021</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003296512119148609</v>
       </c>
       <c r="J3">
-        <v>0.1898995662331515</v>
+        <v>0.6201150208306672</v>
       </c>
       <c r="K3">
-        <v>0.707029988413808</v>
+        <v>0.5747306469147802</v>
       </c>
       <c r="L3">
-        <v>0.06124543879127486</v>
+        <v>0.07204204096284528</v>
       </c>
       <c r="M3">
-        <v>0.1527220538968486</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3291790984788321</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8724671170844083</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8269737655082565</v>
+        <v>2.367023919250244</v>
       </c>
       <c r="C4">
-        <v>0.04692768805618641</v>
+        <v>0.4188164482748959</v>
       </c>
       <c r="D4">
-        <v>0.08973062580333391</v>
+        <v>0.038395414124615</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.874496683972524</v>
+        <v>1.092043482611871</v>
       </c>
       <c r="G4">
-        <v>0.0009123257078517283</v>
+        <v>0.8661625711838639</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005941497628025427</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004526317223892296</v>
       </c>
       <c r="J4">
-        <v>0.1840455331064277</v>
+        <v>0.6022497545088328</v>
       </c>
       <c r="K4">
-        <v>0.6548851153425375</v>
+        <v>0.5625141786871026</v>
       </c>
       <c r="L4">
-        <v>0.06071090600991269</v>
+        <v>0.06935045872606693</v>
       </c>
       <c r="M4">
-        <v>0.1451758974030817</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3039525661170757</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8898046587999531</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8055246734124069</v>
+        <v>2.270574419902118</v>
       </c>
       <c r="C5">
-        <v>0.04494650050575189</v>
+        <v>0.4027905609236768</v>
       </c>
       <c r="D5">
-        <v>0.08647275208301153</v>
+        <v>0.03766673464788184</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.717017732459709</v>
+        <v>1.072090685616814</v>
       </c>
       <c r="G5">
-        <v>0.0009145795958199991</v>
+        <v>0.8472418945348181</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006623137456196138</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005186410823607268</v>
       </c>
       <c r="J5">
-        <v>0.1816785353118391</v>
+        <v>0.5945948856834775</v>
       </c>
       <c r="K5">
-        <v>0.6340880162862419</v>
+        <v>0.5569940425044138</v>
       </c>
       <c r="L5">
-        <v>0.06053620585205621</v>
+        <v>0.06821121375862393</v>
       </c>
       <c r="M5">
-        <v>0.1421972340446906</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2938289548056616</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8971258039236041</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8019932754716876</v>
+        <v>2.252721703266161</v>
       </c>
       <c r="C6">
-        <v>0.04461872136553069</v>
+        <v>0.4006554075269548</v>
       </c>
       <c r="D6">
-        <v>0.08593274887179803</v>
+        <v>0.03757813794571163</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.690940130772503</v>
+        <v>1.067665073826362</v>
       </c>
       <c r="G6">
-        <v>0.0009149561448327869</v>
+        <v>0.8429631836159501</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006746085684354031</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005404743799575229</v>
       </c>
       <c r="J6">
-        <v>0.1812865321492296</v>
+        <v>0.5927491163217979</v>
       </c>
       <c r="K6">
-        <v>0.6306607690605404</v>
+        <v>0.555332366805608</v>
       </c>
       <c r="L6">
-        <v>0.06050974577033941</v>
+        <v>0.06798199712004838</v>
       </c>
       <c r="M6">
-        <v>0.1417082530702061</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2923193845728065</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8984755196630978</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8266824437208129</v>
+        <v>2.360708010346741</v>
       </c>
       <c r="C7">
-        <v>0.04690088623971178</v>
+        <v>0.42003138664424</v>
       </c>
       <c r="D7">
-        <v>0.08968662151877993</v>
+        <v>0.03847364638020778</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.872367945747328</v>
+        <v>1.088706290976788</v>
       </c>
       <c r="G7">
-        <v>0.0009123559518038554</v>
+        <v>0.862773334824837</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005963774733539484</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004801513690422254</v>
       </c>
       <c r="J7">
-        <v>0.1840135397034999</v>
+        <v>0.6005597378552352</v>
       </c>
       <c r="K7">
-        <v>0.6546028626926557</v>
+        <v>0.5603920866505945</v>
       </c>
       <c r="L7">
-        <v>0.06070837787632399</v>
+        <v>0.06922762632899548</v>
       </c>
       <c r="M7">
-        <v>0.1451353447609023</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.304282786752438</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8902595881282771</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9403221965816044</v>
+        <v>2.840971903242007</v>
       </c>
       <c r="C8">
-        <v>0.05717557744424795</v>
+        <v>0.5047009296968383</v>
       </c>
       <c r="D8">
-        <v>0.1064234078068438</v>
+        <v>0.04236894367180355</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7.684711756936309</v>
+        <v>1.185975094109239</v>
       </c>
       <c r="G8">
-        <v>0.0009012046572430793</v>
+        <v>0.9545516217770569</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.003164583017577272</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002582481176567342</v>
       </c>
       <c r="J8">
-        <v>0.1962185210258198</v>
+        <v>0.6374384505547965</v>
       </c>
       <c r="K8">
-        <v>0.764343218706756</v>
+        <v>0.5853147045932019</v>
       </c>
       <c r="L8">
-        <v>0.06196888938691103</v>
+        <v>0.07474133342851985</v>
       </c>
       <c r="M8">
-        <v>0.1611245522677436</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3567904178169812</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8550590738663431</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.18326841232394</v>
+        <v>3.789375225717663</v>
       </c>
       <c r="C9">
-        <v>0.0783840783046017</v>
+        <v>0.6707699569130909</v>
       </c>
       <c r="D9">
-        <v>0.1401982466781106</v>
+        <v>0.04998959720805729</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>9.334114145490872</v>
+        <v>1.388576202411969</v>
       </c>
       <c r="G9">
-        <v>0.0008803861359103873</v>
+        <v>1.146143185067814</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0003121285622371683</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006825969618615702</v>
       </c>
       <c r="J9">
-        <v>0.2209911100650075</v>
+        <v>0.7163020307489774</v>
       </c>
       <c r="K9">
-        <v>0.9974256834030939</v>
+        <v>0.6405387782526475</v>
       </c>
       <c r="L9">
-        <v>0.06596618878432992</v>
+        <v>0.08552442984149877</v>
       </c>
       <c r="M9">
-        <v>0.1961166168319117</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4597544806279217</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7905647569255976</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.377515174312691</v>
+        <v>4.460639527996193</v>
       </c>
       <c r="C10">
-        <v>0.09496860403446306</v>
+        <v>0.7972524109309234</v>
       </c>
       <c r="D10">
-        <v>0.1659541927513573</v>
+        <v>0.05477431924958864</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.59557311025105</v>
+        <v>1.521881130961077</v>
       </c>
       <c r="G10">
-        <v>0.0008656118720542873</v>
+        <v>1.274380744890607</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.000248505194778037</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001403058272622992</v>
       </c>
       <c r="J10">
-        <v>0.2399425192309224</v>
+        <v>0.7683939895690912</v>
       </c>
       <c r="K10">
-        <v>1.183023740491706</v>
+        <v>0.673420878678904</v>
       </c>
       <c r="L10">
-        <v>0.06999016533429625</v>
+        <v>0.09163639196301432</v>
       </c>
       <c r="M10">
-        <v>0.224609654949294</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5212050290916466</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7496712452361045</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.470201654332925</v>
+        <v>4.558129532144221</v>
       </c>
       <c r="C11">
-        <v>0.1028235774182065</v>
+        <v>0.8706145524186013</v>
       </c>
       <c r="D11">
-        <v>0.1779668131918015</v>
+        <v>0.04905756314748189</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>11.18409846029431</v>
+        <v>1.416917098608437</v>
       </c>
       <c r="G11">
-        <v>0.0008589739229876684</v>
+        <v>1.194340314645416</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01883933028613072</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00227554090143034</v>
       </c>
       <c r="J11">
-        <v>0.2487879898830982</v>
+        <v>0.7231479942738872</v>
       </c>
       <c r="K11">
-        <v>1.271460268419588</v>
+        <v>0.6119378244006413</v>
       </c>
       <c r="L11">
-        <v>0.07209722428356713</v>
+        <v>0.08622130896222302</v>
       </c>
       <c r="M11">
-        <v>0.2383218936853808</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4249119815099789</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7625835780376846</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.506007109874247</v>
+        <v>4.50373660270327</v>
       </c>
       <c r="C12">
-        <v>0.1058516803359737</v>
+        <v>0.903815144775848</v>
       </c>
       <c r="D12">
-        <v>0.1825668829545606</v>
+        <v>0.04375082420262189</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.40943577331194</v>
+        <v>1.307028818179333</v>
       </c>
       <c r="G12">
-        <v>0.0008564694114977702</v>
+        <v>1.105938681335758</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05747709470052342</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002315924221748311</v>
       </c>
       <c r="J12">
-        <v>0.2521755788171305</v>
+        <v>0.6768760058252354</v>
       </c>
       <c r="K12">
-        <v>1.305610126371732</v>
+        <v>0.5582052911731878</v>
       </c>
       <c r="L12">
-        <v>0.07293875467998845</v>
+        <v>0.08958759096491953</v>
       </c>
       <c r="M12">
-        <v>0.2436362223008715</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3393273782636186</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7887128695722296</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.498262836289967</v>
+        <v>4.321689948510368</v>
       </c>
       <c r="C13">
-        <v>0.1051969850622498</v>
+        <v>0.9098830146662635</v>
       </c>
       <c r="D13">
-        <v>0.181573753090305</v>
+        <v>0.03860098929045108</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.36078897081876</v>
+        <v>1.182415220604838</v>
       </c>
       <c r="G13">
-        <v>0.0008570084448706346</v>
+        <v>1.001157668072125</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131536489841807</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002040114444964658</v>
       </c>
       <c r="J13">
-        <v>0.2514442119193845</v>
+        <v>0.6246513456134579</v>
       </c>
       <c r="K13">
-        <v>1.298224484766223</v>
+        <v>0.5041588879704477</v>
       </c>
       <c r="L13">
-        <v>0.0727555085115128</v>
+        <v>0.09949273899250954</v>
       </c>
       <c r="M13">
-        <v>0.2424860294536941</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2583286374444498</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.8260841293425827</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.473132690483425</v>
+        <v>4.135893487526118</v>
       </c>
       <c r="C14">
-        <v>0.1030715715927215</v>
+        <v>0.902312332800733</v>
       </c>
       <c r="D14">
-        <v>0.1783441857836152</v>
+        <v>0.03520238173189227</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.20258523763755</v>
+        <v>1.088912558256979</v>
       </c>
       <c r="G14">
-        <v>0.0008587677092991297</v>
+        <v>0.9205286341321965</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624651268675166</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001828288419067903</v>
       </c>
       <c r="J14">
-        <v>0.2490658919025464</v>
+        <v>0.5854138600845573</v>
       </c>
       <c r="K14">
-        <v>1.274256028894854</v>
+        <v>0.466297176774404</v>
       </c>
       <c r="L14">
-        <v>0.07216555909398892</v>
+        <v>0.1104602512130519</v>
       </c>
       <c r="M14">
-        <v>0.2387565798482036</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2056292117163991</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.8581186397807912</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.457834559701155</v>
+        <v>4.062203619245679</v>
       </c>
       <c r="C15">
-        <v>0.101776960104587</v>
+        <v>0.8952354417652941</v>
       </c>
       <c r="D15">
-        <v>0.1763729158289635</v>
+        <v>0.03434550025432337</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.10601483976751</v>
+        <v>1.061943047037445</v>
       </c>
       <c r="G15">
-        <v>0.0008598464109114601</v>
+        <v>0.8963609572552258</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749689455620143</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001843211478133711</v>
       </c>
       <c r="J15">
-        <v>0.2476142332608333</v>
+        <v>0.5740831132548152</v>
       </c>
       <c r="K15">
-        <v>1.259663421136537</v>
+        <v>0.4562254436597541</v>
       </c>
       <c r="L15">
-        <v>0.07181000359516077</v>
+        <v>0.1133385345320796</v>
       </c>
       <c r="M15">
-        <v>0.2364884881518847</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1927911924196479</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.8677153865203096</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.371551943607642</v>
+        <v>3.811688194222029</v>
       </c>
       <c r="C16">
-        <v>0.09446224929186542</v>
+        <v>0.8395802047931511</v>
       </c>
       <c r="D16">
-        <v>0.1651758080510177</v>
+        <v>0.03348131735119253</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.55743718368524</v>
+        <v>1.030139475211428</v>
       </c>
       <c r="G16">
-        <v>0.0008660471156685764</v>
+        <v>0.8621395127812548</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622832064715141</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001633338978008325</v>
       </c>
       <c r="J16">
-        <v>0.2393694367322894</v>
+        <v>0.5618924160737322</v>
       </c>
       <c r="K16">
-        <v>1.177331830148574</v>
+        <v>0.4525650444653238</v>
       </c>
       <c r="L16">
-        <v>0.06985834820562786</v>
+        <v>0.1082941943614912</v>
       </c>
       <c r="M16">
-        <v>0.2237297778299272</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1855691092439358</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8746625417170364</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.319785016142674</v>
+        <v>3.717731843618878</v>
       </c>
       <c r="C17">
-        <v>0.09006044652032585</v>
+        <v>0.8011785446328759</v>
       </c>
       <c r="D17">
-        <v>0.158388373196189</v>
+        <v>0.0345524316912531</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.2249086538516</v>
+        <v>1.054789397019022</v>
       </c>
       <c r="G17">
-        <v>0.0008698704053090652</v>
+        <v>0.8782545146884928</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245911743565529</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001633921376003045</v>
       </c>
       <c r="J17">
-        <v>0.2343728590136607</v>
+        <v>0.5732127354686014</v>
       </c>
       <c r="K17">
-        <v>1.127907282117434</v>
+        <v>0.4695123818439271</v>
       </c>
       <c r="L17">
-        <v>0.06873449911086738</v>
+        <v>0.09787250615099907</v>
       </c>
       <c r="M17">
-        <v>0.2161042997677178</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.20675276630827</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8630677787427317</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.290411204237699</v>
+        <v>3.75092010337147</v>
       </c>
       <c r="C18">
-        <v>0.08755727927617585</v>
+        <v>0.7718958139751635</v>
       </c>
       <c r="D18">
-        <v>0.1545117225334849</v>
+        <v>0.03771083841449752</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>10.03500468974295</v>
+        <v>1.134475787146613</v>
       </c>
       <c r="G18">
-        <v>0.0008720774522692931</v>
+        <v>0.9427693027133159</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07178337376733168</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001410612937595701</v>
       </c>
       <c r="J18">
-        <v>0.2315196978250214</v>
+        <v>0.6075894894101026</v>
       </c>
       <c r="K18">
-        <v>1.09985108790525</v>
+        <v>0.5086448452728334</v>
       </c>
       <c r="L18">
-        <v>0.06811386077338</v>
+        <v>0.08590162990903494</v>
       </c>
       <c r="M18">
-        <v>0.2117880512968462</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2595249846972507</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8364993084705219</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.280532201809478</v>
+        <v>3.874513645055799</v>
       </c>
       <c r="C19">
-        <v>0.08671441469383723</v>
+        <v>0.7551350327099158</v>
       </c>
       <c r="D19">
-        <v>0.1532035994583367</v>
+        <v>0.0429769055180742</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.970929242619604</v>
+        <v>1.250873647609225</v>
       </c>
       <c r="G19">
-        <v>0.0008728261725489679</v>
+        <v>1.038752292221986</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02644754558413354</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001536780844348939</v>
       </c>
       <c r="J19">
-        <v>0.2305570645236017</v>
+        <v>0.65643857773523</v>
       </c>
       <c r="K19">
-        <v>1.090413140784278</v>
+        <v>0.5617378775192137</v>
       </c>
       <c r="L19">
-        <v>0.06790803926071476</v>
+        <v>0.07998086053725917</v>
       </c>
       <c r="M19">
-        <v>0.2103382245022907</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3424508083451627</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8066703199877381</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.325253590542928</v>
+        <v>4.267233476497893</v>
       </c>
       <c r="C20">
-        <v>0.09052600160450197</v>
+        <v>0.7685176394847133</v>
       </c>
       <c r="D20">
-        <v>0.1591080226511536</v>
+        <v>0.05374242092518955</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10.26016387016173</v>
+        <v>1.47613250946057</v>
       </c>
       <c r="G20">
-        <v>0.000869462601507221</v>
+        <v>1.229859540493891</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001190319381927374</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001825013426552502</v>
       </c>
       <c r="J20">
-        <v>0.2349025675534477</v>
+        <v>0.7492428136981459</v>
       </c>
       <c r="K20">
-        <v>1.133129581837608</v>
+        <v>0.657923590752354</v>
       </c>
       <c r="L20">
-        <v>0.0688514412022414</v>
+        <v>0.08963288319445262</v>
       </c>
       <c r="M20">
-        <v>0.2169087337664877</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5058715751914349</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7619599413162561</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.480494096982682</v>
+        <v>4.821085266243472</v>
       </c>
       <c r="C21">
-        <v>0.1036943251914408</v>
+        <v>0.8633625460715564</v>
       </c>
       <c r="D21">
-        <v>0.1792913263258811</v>
+        <v>0.0589353326133164</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.24898319874302</v>
+        <v>1.611527098127652</v>
       </c>
       <c r="G21">
-        <v>0.0008582507468459212</v>
+        <v>1.35640020695368</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.000488923131405361</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002962577646934861</v>
       </c>
       <c r="J21">
-        <v>0.2497633815948674</v>
+        <v>0.8033561686770838</v>
       </c>
       <c r="K21">
-        <v>1.281277480269125</v>
+        <v>0.6987289479348533</v>
       </c>
       <c r="L21">
-        <v>0.07233762404852939</v>
+        <v>0.09704692846550955</v>
       </c>
       <c r="M21">
-        <v>0.2398485845902698</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5765623438451541</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.727444047953508</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.586122179810133</v>
+        <v>5.178764541808277</v>
       </c>
       <c r="C22">
-        <v>0.1126180503679421</v>
+        <v>0.9248233542661239</v>
       </c>
       <c r="D22">
-        <v>0.1927851812386052</v>
+        <v>0.06174666785219785</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.90986553561447</v>
+        <v>1.69567660315559</v>
       </c>
       <c r="G22">
-        <v>0.0008509748554723041</v>
+        <v>1.436495587104275</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001234525514948404</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003867967697375185</v>
       </c>
       <c r="J22">
-        <v>0.2597004718378813</v>
+        <v>0.8374914336720281</v>
       </c>
       <c r="K22">
-        <v>1.382000284607528</v>
+        <v>0.72414248731085</v>
       </c>
       <c r="L22">
-        <v>0.07487254144635358</v>
+        <v>0.1011851123213621</v>
       </c>
       <c r="M22">
-        <v>0.2555588278881125</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.614623674915876</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7062491581762558</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.529333772788277</v>
+        <v>4.994008388569398</v>
       </c>
       <c r="C23">
-        <v>0.1078229593593818</v>
+        <v>0.8902065135236512</v>
       </c>
       <c r="D23">
-        <v>0.185552432484215</v>
+        <v>0.06013658309872483</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.55566905283712</v>
+        <v>1.654298395090336</v>
       </c>
       <c r="G23">
-        <v>0.0008548544170134225</v>
+        <v>1.397374081450693</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0008003740826760808</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003058904212557501</v>
       </c>
       <c r="J23">
-        <v>0.2543742165690261</v>
+        <v>0.8210873890968742</v>
       </c>
       <c r="K23">
-        <v>1.327854879883944</v>
+        <v>0.7129445921494693</v>
       </c>
       <c r="L23">
-        <v>0.07349472686735226</v>
+        <v>0.09910002899147941</v>
       </c>
       <c r="M23">
-        <v>0.2471032431707272</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5937180973958505</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7168117768561437</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.322780046829109</v>
+        <v>4.285563568543409</v>
       </c>
       <c r="C24">
-        <v>0.0903154391923664</v>
+        <v>0.7631702362996009</v>
       </c>
       <c r="D24">
-        <v>0.1587825902283413</v>
+        <v>0.05427912197379925</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>10.2442210545982</v>
+        <v>1.494450909682797</v>
       </c>
       <c r="G24">
-        <v>0.0008696469414197826</v>
+        <v>1.245913310376636</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.069679872069742E-06</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001355169993685124</v>
       </c>
       <c r="J24">
-        <v>0.2346630262021279</v>
+        <v>0.7574112669918804</v>
       </c>
       <c r="K24">
-        <v>1.130767469317675</v>
+        <v>0.6678284774816063</v>
       </c>
       <c r="L24">
-        <v>0.06879849261205351</v>
+        <v>0.09105310942060818</v>
       </c>
       <c r="M24">
-        <v>0.216544839184408</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5158944055687158</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7594276156621369</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.115055103020637</v>
+        <v>3.523635024855139</v>
       </c>
       <c r="C25">
-        <v>0.07249888470065713</v>
+        <v>0.6281336454398172</v>
       </c>
       <c r="D25">
-        <v>0.1309241707897684</v>
+        <v>0.04806976206272395</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.880389333840469</v>
+        <v>1.3274098448628</v>
       </c>
       <c r="G25">
-        <v>0.0008859173000699272</v>
+        <v>1.087855264591937</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0007823323347961875</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001292412433000045</v>
       </c>
       <c r="J25">
-        <v>0.2141764436106754</v>
+        <v>0.6916480409736891</v>
       </c>
       <c r="K25">
-        <v>0.9321232605549881</v>
+        <v>0.6215714992724983</v>
       </c>
       <c r="L25">
-        <v>0.06470633365859868</v>
+        <v>0.08242932158742455</v>
       </c>
       <c r="M25">
-        <v>0.186206184821522</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4326434473674681</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8082879607406035</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.978055767066849</v>
+        <v>2.815601261516576</v>
       </c>
       <c r="C2">
-        <v>0.5257545422241208</v>
+        <v>0.5638385718086738</v>
       </c>
       <c r="D2">
-        <v>0.04330775697131273</v>
+        <v>0.04728311085090908</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.217061690439238</v>
+        <v>1.106746064736782</v>
       </c>
       <c r="G2">
-        <v>0.9842233421885567</v>
+        <v>0.853697364076595</v>
       </c>
       <c r="H2">
-        <v>0.002564666413845007</v>
+        <v>0.002077634450180277</v>
       </c>
       <c r="I2">
-        <v>0.001837279195709751</v>
+        <v>0.001365994593976794</v>
       </c>
       <c r="J2">
-        <v>0.6499035342908712</v>
+        <v>0.6259271475172739</v>
       </c>
       <c r="K2">
-        <v>0.5951234670003984</v>
+        <v>0.5144343496539889</v>
       </c>
       <c r="L2">
-        <v>0.07636816009535252</v>
+        <v>0.2384394820761493</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1534596024886206</v>
       </c>
       <c r="N2">
-        <v>0.3704000259017164</v>
+        <v>0.07202842805166476</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8452717674305887</v>
+        <v>0.3921097977995913</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8410122202005681</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.599736162130455</v>
+        <v>2.464197599786417</v>
       </c>
       <c r="C3">
-        <v>0.4593312508253575</v>
+        <v>0.4894615579399328</v>
       </c>
       <c r="D3">
-        <v>0.04025540602358291</v>
+        <v>0.04399645888631554</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.139160982776374</v>
+        <v>1.042164739436387</v>
       </c>
       <c r="G3">
-        <v>0.9106654848146718</v>
+        <v>0.7959090358602765</v>
       </c>
       <c r="H3">
-        <v>0.004463333072082021</v>
+        <v>0.003642475789999988</v>
       </c>
       <c r="I3">
-        <v>0.003296512119148609</v>
+        <v>0.002361119222545227</v>
       </c>
       <c r="J3">
-        <v>0.6201150208306672</v>
+        <v>0.5981922193274727</v>
       </c>
       <c r="K3">
-        <v>0.5747306469147802</v>
+        <v>0.5017829043477278</v>
       </c>
       <c r="L3">
-        <v>0.07204204096284528</v>
+        <v>0.2394203636598817</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1441245013851713</v>
       </c>
       <c r="N3">
-        <v>0.3291790984788321</v>
+        <v>0.06839327592957201</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8724671170844083</v>
+        <v>0.3487207489165201</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.860443634086721</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.367023919250244</v>
+        <v>2.247494045771305</v>
       </c>
       <c r="C4">
-        <v>0.4188164482748959</v>
+        <v>0.4441539889447199</v>
       </c>
       <c r="D4">
-        <v>0.038395414124615</v>
+        <v>0.04199939854847656</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.092043482611871</v>
+        <v>1.00294423920495</v>
       </c>
       <c r="G4">
-        <v>0.8661625711838639</v>
+        <v>0.7610033782835472</v>
       </c>
       <c r="H4">
-        <v>0.005941497628025427</v>
+        <v>0.004864920157469144</v>
       </c>
       <c r="I4">
-        <v>0.004526317223892296</v>
+        <v>0.003237968965676075</v>
       </c>
       <c r="J4">
-        <v>0.6022497545088328</v>
+        <v>0.5811951065853407</v>
       </c>
       <c r="K4">
-        <v>0.5625141786871026</v>
+        <v>0.4941566474144068</v>
       </c>
       <c r="L4">
-        <v>0.06935045872606693</v>
+        <v>0.239913542023384</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1391320423577902</v>
       </c>
       <c r="N4">
-        <v>0.3039525661170757</v>
+        <v>0.06612266348878126</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8898046587999531</v>
+        <v>0.3221885679270855</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.87310369305332</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.270574419902118</v>
+        <v>2.157511745028728</v>
       </c>
       <c r="C5">
-        <v>0.4027905609236768</v>
+        <v>0.4262129371695664</v>
       </c>
       <c r="D5">
-        <v>0.03766673464788184</v>
+        <v>0.04121812872861952</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.072090685616814</v>
+        <v>0.9862033826102916</v>
       </c>
       <c r="G5">
-        <v>0.8472418945348181</v>
+        <v>0.7460512654289886</v>
       </c>
       <c r="H5">
-        <v>0.006623137456196138</v>
+        <v>0.005429613860017224</v>
       </c>
       <c r="I5">
-        <v>0.005186410823607268</v>
+        <v>0.003749542950019169</v>
       </c>
       <c r="J5">
-        <v>0.5945948856834775</v>
+        <v>0.5738192192902858</v>
       </c>
       <c r="K5">
-        <v>0.5569940425044138</v>
+        <v>0.490531999693804</v>
       </c>
       <c r="L5">
-        <v>0.06821121375862393</v>
+        <v>0.2398356323643753</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1371189992643771</v>
       </c>
       <c r="N5">
-        <v>0.2938289548056616</v>
+        <v>0.06515909329096115</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8971258039236041</v>
+        <v>0.3115399833393724</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8786168588422605</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.252721703266161</v>
+        <v>2.140807548370162</v>
       </c>
       <c r="C6">
-        <v>0.4006554075269548</v>
+        <v>0.4237792707530161</v>
       </c>
       <c r="D6">
-        <v>0.03757813794571163</v>
+        <v>0.04112269609123942</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.067665073826362</v>
+        <v>0.982382051492678</v>
       </c>
       <c r="G6">
-        <v>0.8429631836159501</v>
+        <v>0.7425260653027834</v>
       </c>
       <c r="H6">
-        <v>0.006746085684354031</v>
+        <v>0.005531613304731453</v>
       </c>
       <c r="I6">
-        <v>0.005404743799575229</v>
+        <v>0.003957767274902046</v>
       </c>
       <c r="J6">
-        <v>0.5927491163217979</v>
+        <v>0.572038663778244</v>
       </c>
       <c r="K6">
-        <v>0.555332366805608</v>
+        <v>0.4892614715761816</v>
       </c>
       <c r="L6">
-        <v>0.06798199712004838</v>
+        <v>0.2395148473390272</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1365974528792435</v>
       </c>
       <c r="N6">
-        <v>0.2923193845728065</v>
+        <v>0.06496479539593825</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8984755196630978</v>
+        <v>0.309944039136326</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8797605910167476</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.360708010346741</v>
+        <v>2.23932566875618</v>
       </c>
       <c r="C7">
-        <v>0.42003138664424</v>
+        <v>0.4442970640037629</v>
       </c>
       <c r="D7">
-        <v>0.03847364638020778</v>
+        <v>0.04221373990785438</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.088706290976788</v>
+        <v>0.9980628359971888</v>
       </c>
       <c r="G7">
-        <v>0.862773334824837</v>
+        <v>0.7617140360960377</v>
       </c>
       <c r="H7">
-        <v>0.005963774733539484</v>
+        <v>0.004890450707374705</v>
       </c>
       <c r="I7">
-        <v>0.004801513690422254</v>
+        <v>0.003557683242275012</v>
       </c>
       <c r="J7">
-        <v>0.6005597378552352</v>
+        <v>0.5725122204965771</v>
       </c>
       <c r="K7">
-        <v>0.5603920866505945</v>
+        <v>0.4914617024541563</v>
       </c>
       <c r="L7">
-        <v>0.06922762632899548</v>
+        <v>0.238725878705651</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1382995164635688</v>
       </c>
       <c r="N7">
-        <v>0.304282786752438</v>
+        <v>0.06600852155799064</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8902595881282771</v>
+        <v>0.3224097492211371</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8740882492652311</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.840971903242007</v>
+        <v>2.680963009547668</v>
       </c>
       <c r="C8">
-        <v>0.5047009296968383</v>
+        <v>0.5364066098478304</v>
       </c>
       <c r="D8">
-        <v>0.04236894367180355</v>
+        <v>0.04671422285816362</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.185975094109239</v>
+        <v>1.074646843731415</v>
       </c>
       <c r="G8">
-        <v>0.9545516217770569</v>
+        <v>0.8425191877343252</v>
       </c>
       <c r="H8">
-        <v>0.003164583017577272</v>
+        <v>0.002586936342385604</v>
       </c>
       <c r="I8">
-        <v>0.002582481176567342</v>
+        <v>0.002030311898939985</v>
       </c>
       <c r="J8">
-        <v>0.6374384505547965</v>
+        <v>0.5910933083706027</v>
       </c>
       <c r="K8">
-        <v>0.5853147045932019</v>
+        <v>0.5049478632545714</v>
       </c>
       <c r="L8">
-        <v>0.07474133342851985</v>
+        <v>0.2366573532385985</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1483931320583167</v>
       </c>
       <c r="N8">
-        <v>0.3567904178169812</v>
+        <v>0.07063337734083852</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8550590738663431</v>
+        <v>0.3774048487950381</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8495750114233829</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.789375225717663</v>
+        <v>3.556588086070064</v>
       </c>
       <c r="C9">
-        <v>0.6707699569130909</v>
+        <v>0.7216415577539408</v>
       </c>
       <c r="D9">
-        <v>0.04998959720805729</v>
+        <v>0.05507815993912146</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.388576202411969</v>
+        <v>1.240389518547488</v>
       </c>
       <c r="G9">
-        <v>1.146143185067814</v>
+        <v>0.9975567060389068</v>
       </c>
       <c r="H9">
-        <v>0.0003121285622371683</v>
+        <v>0.0002458845105195451</v>
       </c>
       <c r="I9">
-        <v>0.0006825969618615702</v>
+        <v>0.0008068135069949633</v>
       </c>
       <c r="J9">
-        <v>0.7163020307489774</v>
+        <v>0.6558403825824968</v>
       </c>
       <c r="K9">
-        <v>0.6405387782526475</v>
+        <v>0.5389000651777565</v>
       </c>
       <c r="L9">
-        <v>0.08552442984149877</v>
+        <v>0.234429162916939</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1761772591775035</v>
       </c>
       <c r="N9">
-        <v>0.4597544806279217</v>
+        <v>0.07963849213312724</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7905647569255976</v>
+        <v>0.4858024262529881</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8051637337144797</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.460639527996193</v>
+        <v>4.161434898963989</v>
       </c>
       <c r="C10">
-        <v>0.7972524109309234</v>
+        <v>0.8552880178696114</v>
       </c>
       <c r="D10">
-        <v>0.05477431924958864</v>
+        <v>0.06110205337118657</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.521881130961077</v>
+        <v>1.33724571097045</v>
       </c>
       <c r="G10">
-        <v>1.274380744890607</v>
+        <v>1.123886581119621</v>
       </c>
       <c r="H10">
-        <v>0.000248505194778037</v>
+        <v>0.0002394272630827921</v>
       </c>
       <c r="I10">
-        <v>0.001403058272622992</v>
+        <v>0.001608381865048969</v>
       </c>
       <c r="J10">
-        <v>0.7683939895690912</v>
+        <v>0.6569856571430392</v>
       </c>
       <c r="K10">
-        <v>0.673420878678904</v>
+        <v>0.5526113502111727</v>
       </c>
       <c r="L10">
-        <v>0.09163639196301432</v>
+        <v>0.2279030579937107</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1955551947447276</v>
       </c>
       <c r="N10">
-        <v>0.5212050290916466</v>
+        <v>0.08478339019235825</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7496712452361045</v>
+        <v>0.5500716863407575</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7832448420729889</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.558129532144221</v>
+        <v>4.234498546166321</v>
       </c>
       <c r="C11">
-        <v>0.8706145524186013</v>
+        <v>0.9143940827374593</v>
       </c>
       <c r="D11">
-        <v>0.04905756314748189</v>
+        <v>0.05587278073534208</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.416917098608437</v>
+        <v>1.222527480003478</v>
       </c>
       <c r="G11">
-        <v>1.194340314645416</v>
+        <v>1.102327444702809</v>
       </c>
       <c r="H11">
-        <v>0.01883933028613072</v>
+        <v>0.01881193545515103</v>
       </c>
       <c r="I11">
-        <v>0.00227554090143034</v>
+        <v>0.002518373473585633</v>
       </c>
       <c r="J11">
-        <v>0.7231479942738872</v>
+        <v>0.5424557547422495</v>
       </c>
       <c r="K11">
-        <v>0.6119378244006413</v>
+        <v>0.4921956187008618</v>
       </c>
       <c r="L11">
-        <v>0.08622130896222302</v>
+        <v>0.2016164182045621</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1778463996434461</v>
       </c>
       <c r="N11">
-        <v>0.4249119815099789</v>
+        <v>0.08221456355721912</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7625835780376846</v>
+        <v>0.4487626304452448</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8208608193584226</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.50373660270327</v>
+        <v>4.181887360640587</v>
       </c>
       <c r="C12">
-        <v>0.903815144775848</v>
+        <v>0.9376144766573589</v>
       </c>
       <c r="D12">
-        <v>0.04375082420262189</v>
+        <v>0.05003948678847081</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.307028818179333</v>
+        <v>1.118893176798906</v>
       </c>
       <c r="G12">
-        <v>1.105938681335758</v>
+        <v>1.047111353876602</v>
       </c>
       <c r="H12">
-        <v>0.05747709470052342</v>
+        <v>0.05745306212404699</v>
       </c>
       <c r="I12">
-        <v>0.002315924221748311</v>
+        <v>0.002542400333116923</v>
       </c>
       <c r="J12">
-        <v>0.6768760058252354</v>
+        <v>0.4767128574340092</v>
       </c>
       <c r="K12">
-        <v>0.5582052911731878</v>
+        <v>0.4461023763073371</v>
       </c>
       <c r="L12">
-        <v>0.08958759096491953</v>
+        <v>0.1840379782468915</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1612923094013112</v>
       </c>
       <c r="N12">
-        <v>0.3393273782636186</v>
+        <v>0.08784600216212901</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7887128695722296</v>
+        <v>0.3590484196994623</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.861653790354957</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.321689948510368</v>
+        <v>4.027845686212743</v>
       </c>
       <c r="C13">
-        <v>0.9098830146662635</v>
+        <v>0.9398656634798499</v>
       </c>
       <c r="D13">
-        <v>0.03860098929045108</v>
+        <v>0.04350854484858147</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.182415220604838</v>
+        <v>1.016340601367418</v>
       </c>
       <c r="G13">
-        <v>1.001157668072125</v>
+        <v>0.9497501955857786</v>
       </c>
       <c r="H13">
-        <v>0.1131536489841807</v>
+        <v>0.1131480641378602</v>
       </c>
       <c r="I13">
-        <v>0.002040114444964658</v>
+        <v>0.002301482821371437</v>
       </c>
       <c r="J13">
-        <v>0.6246513456134579</v>
+        <v>0.4484249375122431</v>
       </c>
       <c r="K13">
-        <v>0.5041588879704477</v>
+        <v>0.4064624712441685</v>
       </c>
       <c r="L13">
-        <v>0.09949273899250954</v>
+        <v>0.1707960964016095</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1444323198830872</v>
       </c>
       <c r="N13">
-        <v>0.2583286374444498</v>
+        <v>0.09982676829461568</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8260841293425827</v>
+        <v>0.2744646485287774</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.9038360690142042</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.135893487526118</v>
+        <v>3.872801012357229</v>
       </c>
       <c r="C14">
-        <v>0.902312332800733</v>
+        <v>0.9323538771847666</v>
       </c>
       <c r="D14">
-        <v>0.03520238173189227</v>
+        <v>0.0389354274225866</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.088912558256979</v>
+        <v>0.9442746666273649</v>
       </c>
       <c r="G14">
-        <v>0.9205286341321965</v>
+        <v>0.8644014508494706</v>
       </c>
       <c r="H14">
-        <v>0.1624651268675166</v>
+        <v>0.1624678343933965</v>
       </c>
       <c r="I14">
-        <v>0.001828288419067903</v>
+        <v>0.002137580034132114</v>
       </c>
       <c r="J14">
-        <v>0.5854138600845573</v>
+        <v>0.4423845265757791</v>
       </c>
       <c r="K14">
-        <v>0.466297176774404</v>
+        <v>0.3811021115423827</v>
       </c>
       <c r="L14">
-        <v>0.1104602512130519</v>
+        <v>0.1630762462320945</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1325183821581497</v>
       </c>
       <c r="N14">
-        <v>0.2056292117163991</v>
+        <v>0.1121510748710683</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8581186397807912</v>
+        <v>0.2194697577514191</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.934030921287146</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.062203619245679</v>
+        <v>3.811555328015174</v>
       </c>
       <c r="C15">
-        <v>0.8952354417652941</v>
+        <v>0.9264510981479646</v>
       </c>
       <c r="D15">
-        <v>0.03434550025432337</v>
+        <v>0.037710603168712</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.061943047037445</v>
+        <v>0.9252508727621631</v>
       </c>
       <c r="G15">
-        <v>0.8963609572552258</v>
+        <v>0.8352384921260096</v>
       </c>
       <c r="H15">
-        <v>0.1749689455620143</v>
+        <v>0.1749716470296079</v>
       </c>
       <c r="I15">
-        <v>0.001843211478133711</v>
+        <v>0.002189353933585103</v>
       </c>
       <c r="J15">
-        <v>0.5740831132548152</v>
+        <v>0.446326916861139</v>
       </c>
       <c r="K15">
-        <v>0.4562254436597541</v>
+        <v>0.3752582548971546</v>
       </c>
       <c r="L15">
-        <v>0.1133385345320796</v>
+        <v>0.1616245383060715</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1292723981751678</v>
       </c>
       <c r="N15">
-        <v>0.1927911924196479</v>
+        <v>0.1153715896378706</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8677153865203096</v>
+        <v>0.2061138982237551</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9411255953972528</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.811688194222029</v>
+        <v>3.603046649002351</v>
       </c>
       <c r="C16">
-        <v>0.8395802047931511</v>
+        <v>0.8796861990084324</v>
       </c>
       <c r="D16">
-        <v>0.03348131735119253</v>
+        <v>0.0360370885041803</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.030139475211428</v>
+        <v>0.9167345365216875</v>
       </c>
       <c r="G16">
-        <v>0.8621395127812548</v>
+        <v>0.7697831307878573</v>
       </c>
       <c r="H16">
-        <v>0.1622832064715141</v>
+        <v>0.1622549246922205</v>
       </c>
       <c r="I16">
-        <v>0.001633338978008325</v>
+        <v>0.002010077027644996</v>
       </c>
       <c r="J16">
-        <v>0.5618924160737322</v>
+        <v>0.4964373134490927</v>
       </c>
       <c r="K16">
-        <v>0.4525650444653238</v>
+        <v>0.3815621746025712</v>
       </c>
       <c r="L16">
-        <v>0.1082941943614912</v>
+        <v>0.1669908695963684</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1271729778891348</v>
       </c>
       <c r="N16">
-        <v>0.1855691092439358</v>
+        <v>0.110479913353295</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8746625417170364</v>
+        <v>0.1991017310475698</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9306839273038179</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.717731843618878</v>
+        <v>3.521772355168196</v>
       </c>
       <c r="C17">
-        <v>0.8011785446328759</v>
+        <v>0.8460034121121964</v>
       </c>
       <c r="D17">
-        <v>0.0345524316912531</v>
+        <v>0.03707425933027153</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.054789397019022</v>
+        <v>0.9465059279128241</v>
       </c>
       <c r="G17">
-        <v>0.8782545146884928</v>
+        <v>0.7687952016463413</v>
       </c>
       <c r="H17">
-        <v>0.1245911743565529</v>
+        <v>0.124527750315977</v>
       </c>
       <c r="I17">
-        <v>0.001633921376003045</v>
+        <v>0.002001544704532954</v>
       </c>
       <c r="J17">
-        <v>0.5732127354686014</v>
+        <v>0.5329287347924776</v>
       </c>
       <c r="K17">
-        <v>0.4695123818439271</v>
+        <v>0.3991921102412626</v>
       </c>
       <c r="L17">
-        <v>0.09787250615099907</v>
+        <v>0.1753284312967303</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1313581191503239</v>
       </c>
       <c r="N17">
-        <v>0.20675276630827</v>
+        <v>0.09939495236990936</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8630677787427317</v>
+        <v>0.2216057951271537</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9091190586402078</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.75092010337147</v>
+        <v>3.549044210857062</v>
       </c>
       <c r="C18">
-        <v>0.7718958139751635</v>
+        <v>0.8210185379628854</v>
       </c>
       <c r="D18">
-        <v>0.03771083841449752</v>
+        <v>0.04064512491962091</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.134475787146613</v>
+        <v>1.019484636282726</v>
       </c>
       <c r="G18">
-        <v>0.9427693027133159</v>
+        <v>0.8172787441632892</v>
       </c>
       <c r="H18">
-        <v>0.07178337376733168</v>
+        <v>0.07171135017642882</v>
       </c>
       <c r="I18">
-        <v>0.001410612937595701</v>
+        <v>0.00172536273184587</v>
       </c>
       <c r="J18">
-        <v>0.6075894894101026</v>
+        <v>0.5740810996673957</v>
       </c>
       <c r="K18">
-        <v>0.5086448452728334</v>
+        <v>0.4321900063093196</v>
       </c>
       <c r="L18">
-        <v>0.08590162990903494</v>
+        <v>0.1886343287762138</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1425514734954909</v>
       </c>
       <c r="N18">
-        <v>0.2595249846972507</v>
+        <v>0.08591799902914943</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8364993084705219</v>
+        <v>0.2770828494961961</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8752185350749855</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.874513645055799</v>
+        <v>3.654565174677032</v>
       </c>
       <c r="C19">
-        <v>0.7551350327099158</v>
+        <v>0.809012218158955</v>
       </c>
       <c r="D19">
-        <v>0.0429769055180742</v>
+        <v>0.04665389924317154</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.250873647609225</v>
+        <v>1.121301354255365</v>
       </c>
       <c r="G19">
-        <v>1.038752292221986</v>
+        <v>0.8960933789323775</v>
       </c>
       <c r="H19">
-        <v>0.02644754558413354</v>
+        <v>0.02639776606002187</v>
       </c>
       <c r="I19">
-        <v>0.001536780844348939</v>
+        <v>0.001888000888627062</v>
       </c>
       <c r="J19">
-        <v>0.65643857773523</v>
+        <v>0.6191283407494694</v>
       </c>
       <c r="K19">
-        <v>0.5617378775192137</v>
+        <v>0.4745716417282964</v>
       </c>
       <c r="L19">
-        <v>0.07998086053725917</v>
+        <v>0.204733693896312</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1583190605813698</v>
       </c>
       <c r="N19">
-        <v>0.3424508083451627</v>
+        <v>0.07775806162696597</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8066703199877381</v>
+        <v>0.36390432332486</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8394027571495144</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.267233476497893</v>
+        <v>3.994815824311729</v>
       </c>
       <c r="C20">
-        <v>0.7685176394847133</v>
+        <v>0.8289441804389526</v>
       </c>
       <c r="D20">
-        <v>0.05374242092518955</v>
+        <v>0.05926467063449081</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.47613250946057</v>
+        <v>1.308566716840204</v>
       </c>
       <c r="G20">
-        <v>1.229859540493891</v>
+        <v>1.066827856626418</v>
       </c>
       <c r="H20">
-        <v>0.0001190319381927374</v>
+        <v>0.0001195197503953693</v>
       </c>
       <c r="I20">
-        <v>0.001825013426552502</v>
+        <v>0.002209979455204625</v>
       </c>
       <c r="J20">
-        <v>0.7492428136981459</v>
+        <v>0.6762701487955525</v>
       </c>
       <c r="K20">
-        <v>0.657923590752354</v>
+        <v>0.5460132088890006</v>
       </c>
       <c r="L20">
-        <v>0.08963288319445262</v>
+        <v>0.2285393011114287</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1891125613207016</v>
       </c>
       <c r="N20">
-        <v>0.5058715751914349</v>
+        <v>0.08314477669494469</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7619599413162561</v>
+        <v>0.5343571700151131</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7900755657297509</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.821085266243472</v>
+        <v>4.448357870748396</v>
       </c>
       <c r="C21">
-        <v>0.8633625460715564</v>
+        <v>0.9084137666141316</v>
       </c>
       <c r="D21">
-        <v>0.0589353326133164</v>
+        <v>0.06841602792086832</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.611527098127652</v>
+        <v>1.376939602730587</v>
       </c>
       <c r="G21">
-        <v>1.35640020695368</v>
+        <v>1.264433192632737</v>
       </c>
       <c r="H21">
-        <v>0.000488923131405361</v>
+        <v>0.0003830412208922773</v>
       </c>
       <c r="I21">
-        <v>0.002962577646934861</v>
+        <v>0.003153527069410522</v>
       </c>
       <c r="J21">
-        <v>0.8033561686770838</v>
+        <v>0.5676132862932661</v>
       </c>
       <c r="K21">
-        <v>0.6987289479348533</v>
+        <v>0.5536236285972933</v>
       </c>
       <c r="L21">
-        <v>0.09704692846550955</v>
+        <v>0.2225459365403175</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2035984410061786</v>
       </c>
       <c r="N21">
-        <v>0.5765623438451541</v>
+        <v>0.0890220491708611</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.727444047953508</v>
+        <v>0.6061722853612537</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7769071722971432</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.178764541808277</v>
+        <v>4.736520242212009</v>
       </c>
       <c r="C22">
-        <v>0.9248233542661239</v>
+        <v>0.9575118243618874</v>
       </c>
       <c r="D22">
-        <v>0.06174666785219785</v>
+        <v>0.07412370597425877</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.69567660315559</v>
+        <v>1.41465007998643</v>
       </c>
       <c r="G22">
-        <v>1.436495587104275</v>
+        <v>1.402225004848901</v>
       </c>
       <c r="H22">
-        <v>0.001234525514948404</v>
+        <v>0.0009497869803873904</v>
       </c>
       <c r="I22">
-        <v>0.003867967697375185</v>
+        <v>0.003719328581237136</v>
       </c>
       <c r="J22">
-        <v>0.8374914336720281</v>
+        <v>0.4956131610408931</v>
       </c>
       <c r="K22">
-        <v>0.72414248731085</v>
+        <v>0.5563626910435033</v>
       </c>
       <c r="L22">
-        <v>0.1011851123213621</v>
+        <v>0.2178834435317825</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2125932028907656</v>
       </c>
       <c r="N22">
-        <v>0.614623674915876</v>
+        <v>0.09235097947724391</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7062491581762558</v>
+        <v>0.6444398768373105</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7712356763943689</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.994008388569398</v>
+        <v>4.594666147387784</v>
       </c>
       <c r="C23">
-        <v>0.8902065135236512</v>
+        <v>0.9325120102121502</v>
       </c>
       <c r="D23">
-        <v>0.06013658309872483</v>
+        <v>0.07053176285158713</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.654298395090336</v>
+        <v>1.402510084111199</v>
       </c>
       <c r="G23">
-        <v>1.397374081450693</v>
+        <v>1.32057304411066</v>
       </c>
       <c r="H23">
-        <v>0.0008003740826760808</v>
+        <v>0.0006250065820960771</v>
       </c>
       <c r="I23">
-        <v>0.003058904212557501</v>
+        <v>0.003048316660930084</v>
       </c>
       <c r="J23">
-        <v>0.8210873890968742</v>
+        <v>0.5496257104650937</v>
       </c>
       <c r="K23">
-        <v>0.7129445921494693</v>
+        <v>0.5589908648974458</v>
       </c>
       <c r="L23">
-        <v>0.09910002899147941</v>
+        <v>0.2217683520677518</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2094389045610896</v>
       </c>
       <c r="N23">
-        <v>0.5937180973958505</v>
+        <v>0.09068479013019726</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7168117768561437</v>
+        <v>0.6237110686985119</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7716912109461163</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.285563568543409</v>
+        <v>4.011270576748132</v>
       </c>
       <c r="C24">
-        <v>0.7631702362996009</v>
+        <v>0.824023129719933</v>
       </c>
       <c r="D24">
-        <v>0.05427912197379925</v>
+        <v>0.0598626132402984</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.494450909682797</v>
+        <v>1.325052780042327</v>
       </c>
       <c r="G24">
-        <v>1.245913310376636</v>
+        <v>1.079990403798348</v>
       </c>
       <c r="H24">
-        <v>3.069679872069742E-06</v>
+        <v>3.860935854138603E-06</v>
       </c>
       <c r="I24">
-        <v>0.001355169993685124</v>
+        <v>0.001638987182158047</v>
       </c>
       <c r="J24">
-        <v>0.7574112669918804</v>
+        <v>0.6846537354845879</v>
       </c>
       <c r="K24">
-        <v>0.6678284774816063</v>
+        <v>0.5542982353617418</v>
       </c>
       <c r="L24">
-        <v>0.09105310942060818</v>
+        <v>0.2317040972711766</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1921688707967313</v>
       </c>
       <c r="N24">
-        <v>0.5158944055687158</v>
+        <v>0.08422423220268715</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7594276156621369</v>
+        <v>0.5448456431507367</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7858048839372316</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.523635024855139</v>
+        <v>3.314714126660078</v>
       </c>
       <c r="C25">
-        <v>0.6281336454398172</v>
+        <v>0.6754630467912648</v>
       </c>
       <c r="D25">
-        <v>0.04806976206272395</v>
+        <v>0.0527700586955433</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.3274098448628</v>
+        <v>1.192491942826095</v>
       </c>
       <c r="G25">
-        <v>1.087855264591937</v>
+        <v>0.9442610489914358</v>
       </c>
       <c r="H25">
-        <v>0.0007823323347961875</v>
+        <v>0.0006252406280331524</v>
       </c>
       <c r="I25">
-        <v>0.001292412433000045</v>
+        <v>0.001384948646190765</v>
       </c>
       <c r="J25">
-        <v>0.6916480409736891</v>
+        <v>0.6455422114531046</v>
       </c>
       <c r="K25">
-        <v>0.6215714992724983</v>
+        <v>0.5274707191753834</v>
       </c>
       <c r="L25">
-        <v>0.08242932158742455</v>
+        <v>0.2343155170272482</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1672383926797636</v>
       </c>
       <c r="N25">
-        <v>0.4326434473674681</v>
+        <v>0.07707677160408544</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8082879607406035</v>
+        <v>0.4573588883495745</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8174194112245488</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
